--- a/deuChatbot/research_result/version_1(3500_200).xlsx
+++ b/deuChatbot/research_result/version_1(3500_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13661,6 +13661,7180 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기시험의 주요 요소들을 포함하고 있지만, 배점 비율에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 배점이 700점(70%)으로 명시되어 있으나, 생성된 응답에서는 시각디자인, 산업디자인, 공예디자인의 비율이 각각 70%, 20%, 10%로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 배점 비율과 관련된 정보에서 일관성이 결여되어 있습니다. 또한, 실기종목에 대한 설명이 원본과 다소 다르게 표현되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 설명이 적절하게 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율의 오류로 인해 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보 중 일부는 정확하지만, 배점 비율과 관련된 정보에서 부정확한 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 배점 비율의 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 용어와 표현을 사용하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 배점 비율의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8340198442568637</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+- **종목**: 시각디자인, 산업디자인, 공예디자인 중 선택 (택1)
+- **배점 비율**: 
+  - 시각디자인: 70%
+  - 산업디자인: 20%
+  - 공예디자인: 10%
+- **준비물**:
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A와 주제B에서 각각 1개씩 선택하여 연결된 주제를 당일 추첨
+  - 예시: 잠자리와 저울 (잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지) 또는 콜라병과 계절 (콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼, 바이러스, 자유, 여행)
+- **화지크기**: 켄트지 3절
+- **시험 시간**: 5시간
+이렇게 구성된 실기시험은 학생들의 창의성과 표현 능력을 평가하는 데 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목에 대한 정보를 제공하지만, '기초디자인'과 '사고의 전환'이라는 구체적인 실기 종목을 언급하지 않고 '시각디자인, 산업디자인, 공예디자인'으로 일반화하고 있습니다. 이로 인해 일부 사실이 누락되었고, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 실기 종목의 구체적인 명칭이 다르기 때문에 일관성이 떨어집니다. 원본 텍스트의 두 가지 실기 종목을 명확히 언급하지 않고 일반화된 정보로 대체했습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 구체적인 실기 종목에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 실기 종목의 구체적인 명칭이 누락되어 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 내용과 다르게 일반화된 정보를 사용하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목에 대한 의미를 적절하게 전달하고 있으나, 구체적인 실기 종목에 대한 정보가 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 일반화되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8317136653531613</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다. 각 종목별로 다음과 같은 준비물, 실기주제, 화지크기 및 시간이 있습니다:
+### 준비물
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+### 실기주제
+- 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+### 화지크기
+- 켄트지3절 (시각디자인)
+- 켄트지2절 (산업디자인, 공예디자인)
+### 시간
+- 5시간
+이 정보는 디자인조형학과의 실기 종목 중 하나를 선택한 경우에 해당합니다. 다른 종목(산업디자인, 공예디자인)에서도 유사한 준비물과 화지크기를 사용하며, 주제와 시간은 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과 모집종목별 인정대회에 대한 구체적인 정보를 제공하지 않고, 관련된 대회 목록이 언급되지 않았다고 주장합니다. 그러나 원본 텍스트에는 명확한 대회 목록이 포함되어 있어, 이 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 대회 목록이 없다고 주장하는 것은 원본의 내용을 부정하는 것입니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 응답은 경기지도학과와 관련된 대회 목록을 찾는 방법을 제안하지만, 원본 텍스트의 구체적인 대회 목록을 무시하고 있습니다. 따라서 관련성은 있지만, 원본의 핵심 정보를 충분히 반영하지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 대회 목록이 없다는 점을 강조하고, 대안적인 방법을 제시하지만, 원본 텍스트의 내용을 충분히 반영하지 않아 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 대회 목록이 없다고 잘못된 정보를 제공합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 의미적으로 적절하지만, 원본 텍스트의 핵심 정보를 무시하고 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 원본의 내용을 충분히 반영하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.6487618354745854</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과와 관련된 특정 모집종목별 인정대회의 명단은 직접적으로 언급되어 있지 않습니다. 하지만, 나군 실기/실적(경기실적우수자전형)의 동점자 처리기준 표에서 일부 종목에 대한 서류심사 기준 및 점수표가 제시되어 있습니다. 이 중 배드민턴과 축구 종목만 언급되어 있으며, 경기지도학과와 직접 관련이 있는 대회는 명시되지 않았습니다.
+따라서, 정확한 경기지도학과 모집종목별 인정대회의 명단을 얻으려면 다음과 같은 방법들을 추천드립니다:
+1. 동의대학교 입학처 웹사이트를 확인해보세요.
+2. 동의대학교 입학규정이나 모집요강을 참조하세요.
+3. 직접 동의대학교 입학관리팀에 문의하여 자세한 정보를 얻으시기 바랍니다.
+만약 특정 종목에 대한 인정대회 목록이 필요하다면, 위 방법들을 통해 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 반영하지 않고 있습니다. 이로 인해 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 유창성 점수는 3입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 없고, 논리적인 흐름이 부족합니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 2입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.3597913920227803</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于设计造型学部基础设计实际考试的主题列表。因此，根据现有数据无法给出答案。
+如果您需要了解设计造型学部基础设计实考的具体主题，请参考学校官方发布的招生简章或直接咨询学校的相关部门以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 정보가 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다. 추가적인 설명도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 전반적으로 문장이 잘 구성되어 있으나, "는아니로" 부분에서 약간의 어색함이 느껴집니다. 그러나 전체적으로 읽기에는 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으나, 처음 부분의 문장이 다소 어색하여 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 모든 사실을 정확하게 반영하고 있으며, 출결 점수가 반영되지 않는다는 점을 명확히 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 처음 부분의 어색함이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.7140689850761821</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>는아니로, 나군 학생부교과 전형에서는 출결이 반영되지 않습니다.
+참조해보면:
+- "나군 학생부교과(농어촌학생전형)"의 전형요소 반영비율은 {100 / 0 / 0 / 0 / 0 / 0}로, 출결이 포함되어 있지 않습니다.
+- 다른 나군 학생부교과 전형에서도 마찬가지로 출결이 반영되지 않는 것을 확인할 수 있습니다.
+따라서 동의대학교 나군 학생부교과 전형에서는 학생부 교과성적 외에 출결은 평가 대상에서 제외되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원 수를 잘못 기재하였으며, 원본 텍스트의 사실과 완전히 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 모집 인원 수가 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "&lt;가&gt;군"이라는 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 모집 인원 수의 오류로 인해 전체적인 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.769705260698623</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학 국어국문학과에서는 &lt;가&gt;군 일반학생 전형으로 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 모집 인원인 28명을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 핵심 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6102218007667328</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서 제시된 22명과 생성된 응답의 110명은 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 주제와 관련이 있습니다. 모집 인원에 대한 정보를 요청한 질문에 대해 응답이 적절하게 이루어졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 정보가 잘 구성되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 의미와 크게 다르며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.5727228184817018</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>110명입니다.
+[표 내용]에서 다음과 같이 확인할 수 있습니다:
+의료·보건·생활대학 / 간호학과 - 교직 - 간호교육인증 / 110 /
+따라서, 의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으나, 원문에서 제공된 점수와 등급의 관계를 명확히 설명하지는 않았다. 따라서 약간의 부정확성이 존재한다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 정보를 제공하지만, 원문에서 제시된 점수와 등급의 관계를 명확히 설명하지 않아 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 내용과 직접적으로 관련이 있으며, 수능 영어영역 등급에 따른 점수를 잘 전달하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 일부 표현이 다소 어색할 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있다. 그러나 원문과의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 점수와 등급을 정확하게 반영하고 있지만, 추가적인 설명이 필요하다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 일부 표현이 원문과의 맥락에서 다소 벗어날 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 표현이 다소 복잡할 수 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6863661704849634</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照英语等级对应的分数列表：
+```markdown
+등급 / 점수
+1 / 139 /
+2 / 131 /
+3 / 123 /
+4 / 115 /
+5 / 107 /
+6 / 99 /
+7 / 91 /
+8 / 83 /
+9 / 75 /
+```
+根据这个列表，英语等级越高，对应的分数也越高。</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 지원 자격에 대한 설명도 일치합니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡할 수 있어 이해도 점수는 4입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6062578487301628</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>依据提供的表格信息，艺术高中（예술고）的学生不能申请南国大学学生部教科（농어촌학생전형）。
+具体来说，在“高中的类型”一栏中：
+- 艺术高中（예술고）被标记为{ 지원 불가능 / 지원 불가능 }，即不可行。
+因此，艺术高中的学生不符合南国大学学生部教科（농어촌학생전형）的申请资格。</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 기록(218~221 cm)과 배점(275점)과 크게 다릅니다. 제시된 기록과 배점이 모두 잘못되어 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본의 기록과 배점과는 전혀 일치하지 않으며, 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 요청된 정보(여자 제자리 멀리뛰기 4등급의 기록과 배점)에 대해 직접적으로 언급하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답의 기록과 배점은 원본 텍스트와 전혀 일치하지 않으며, 사실적으로 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 요청된 정보에 대해 적절한 의미를 전달하고 있으나, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8769061693641064</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 기록과 배점은 다음과 같습니다:
+- 제자리 멀리뛰기 (여자): 203~206cm
+- 배점: 128.0 점
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 203~206cm이고, 배점은 128.0점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7310174516781951</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% 
+- 서류(경기실적): 70%
+따라서 출결 부분만 12%를 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 직접적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.821409978180438</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "전형별 모집단위별 모집인원" 표에서 확인할 수 있습니다. 해당 표의 내용 중 다음과 같은 부분을 참조하였습니다:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: 물리치료학과
+- 모집인원: 4 명
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5013863194790606</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있으며, 해당 표의 내용 중 다음과 같습니다:
+```
+&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과 / 2024. 01. 17.(수) /
+```</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 응용화학과의 모집단위와 인원에 대한 추가 정보를 제공하고 있습니다. 그러나 "제공된 데이터에서 확인할 수 없습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 반복적으로 강조하고 있습니다. 다만, "정확한 최저기준은 추가 정보가 필요할 수 있습니다"라는 문장은 약간의 불확실성을 내포하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 응용화학과의 수능 최저 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 마지막 문장은 약간의 추가 설명이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있으며, 관련된 추가 정보를 제공하고 있습니다. 그러나 "정확한 최저기준은 추가 정보가 필요할 수 있습니다"라는 부분은 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 다소 복잡하게 느껴질 수 있어 완전한 명확성은 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4570202000047124</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 
+다만, 관련된 정보는 다음과 같습니다:
+1. 응용화학과는 다군 수능(일반학생전형) 모집단위에 포함되어 있습니다.
+2. 다군 수능(일반학생전형)의 경우 수능 최저기준이 없음을 확인할 수 있습니다.
+3. 응용화학과는 다군에서 45명을 모집하고 있습니다.
+수능 최저기준이 없는 것은 해당 학과에 대한 특별한 조건이 없다는 것을 의미하지만, 정확한 최저기준은 추가 정보가 필요할 수 있습니다. 동의대학교 입학처나 공식 홈페이지를 통해 가장 최신 및 자세한 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 '심리학과'만 언급하고 있으며, 나머지 학과들은 누락되었습니다. 이는 사실과 다르며, 여러 개의 신설 학과가 존재하는데도 불구하고 하나만 언급한 것은 명백한 부정확성입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 신설된 학과 목록에서 '심리학과'만을 언급하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있지만, 제공된 정보가 불완전하여 관련성이 떨어집니다. 신설된 모든 학과를 언급하지 않음으로써 주제에 대한 충분한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 정보의 부족으로 인해 전체적인 흐름이 약간 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 '심리학과'에 대한 정보만을 제공하고 있어, 전체적인 맥락에서 일관성이 떨어집니다. 원본 텍스트의 여러 학과를 언급하지 않음으로써 논리적인 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신설된 학과 목록에서 중요한 정보를 누락하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제에 대한 의미는 전달하고 있으나, 정보의 부족으로 인해 적절한 맥락을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 정보의 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5834345848417215</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 심리학과입니다.
+출처: 
+- 나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원 표에서 확인 가능합니다.
+  단과대학 / 인문사회과학대학 / 인문사회 / 일본학과 - 신설 / 3 이내 /</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보가 포함되어도 원본의 내용을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7876139470292669</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [나군 학생부종합(성인학습자(정원내·외)전형) 전형요소 반영비율] 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용 학과에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답은 한의예과에만 초점을 맞추고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 언급된 모집단위와는 다른 내용을 다루고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보를 제공하지만, 원문에서 다루고 있는 주요 내용과는 관련성이 떨어집니다. 원문에서 언급된 다른 모집단위에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문에서 다루는 다른 모집단위와의 연관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 특정 학과에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보를 제공하지만, 원문과의 맥락이 맞지 않아 의미적으로 적절하지 않습니다. 원문에서 다루는 다른 모집단위에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.6365908908916743</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다:
+- 한의예과 수학(미적분/기하) 응시자 / 국어(화법과작문 또는 언어와매체) 25% +수학 (미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+- 한의예과 수학(확률과통계) 응시자 / 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+따라서, 한의예과에서 수학을 미적분이나 기하로 응시한 경우에만 수능 점수에 10%의 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 포함하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 중요한 사실을 누락하고 있습니다. 또한, 각 영역의 비율이 25%로 나뉘어져 있다는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(각 영역의 비율 및 가산점)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 이를 구체적으로 설명하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 "100% 반영"을 간과하고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보(각 영역의 비율 및 가산점)를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성, 정확성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 내용을 누락하고 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7236445156428841</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체)
+- 수학(확률과통계 or 미적분 or 기하) 
+- 영어
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+각 영역은 25%의 비율로 반영됩니다.
+또한, 한의예과 수학(미적분/기하) 응시자는 수학 취득 표준점수에 10% 가산점이 부여됩니다.
+이러한 방식으로 전반적으로 수능 성적이 학생들의 경쟁력을 평가하는데 중요한 역할을 합니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기고사 날짜에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7547348525402165</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 정해져 있습니다:
+- 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+따라서 가군 실기고사 날짜는 **2024년 1월 16일(화)**입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과가 제외된 모집단위에 대한 정보를 제공하지 않고, 다른 모집단위에 대한 정보도 확인할 수 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명확히 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트에서 제외된 모집단위가 명확히 언급되었음에도 불구하고, 생성된 응답은 이를 부정확하게 설명하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 질문인 제외된 모집단위에 대한 정보와는 관련성이 떨어집니다. 따라서 적절한 관련성을 가지고 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 관련된 정보가 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 제외된 모집단위에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다. 따라서 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란스러울 수 있습니다. 그러나 전반적으로 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.5606895196474947</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 한의예과는 실수학점 포함 영역이 제한적이라는 점을 제외하고, 일반적으로 다른 모집단위가 제외되는 정보는 제공된 데이터에서 확인할 수 없습니다.
+하지만, 한의예과에 대한 특별한 정보가 주어져 있습니다:
+- 한의예과 수학(미적분/기하) 응시자: 
+  - 국어(화법과작문 or 언어와매체)
+  - 수학 (미적분 or 기하)
+  - 영어
+  - 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목) / 각 25%
+- 한의예과 수학(확률과통계) 응시자:
+  - 국어(화법과작문 or 언어와매체)
+  - 수학 (확률과통계)
+  - 영어
+  - 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목) / 각 25%
+따라서, 한의예과는 다른 모집단위와 달리 수능 반영 영역이 약간 다르게 적용되는 것으로 보입니다. 이외에 특별히 제외된 모집단위는 확인되지 않았습니다.
+만약 특정 모집단위가 제외되었거나 추가로 제한 사항이 있는 경우, 공식 입학 안내 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적으로 제공된 표에 대한 설명도 원본 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 일관되게 유지하고 있습니다. 추가적인 정보도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 대한 명확한 답변을 제공합니다. 추가적인 정보도 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8234817064072315</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이 점을 확인하기 위해 제공된 "다군 수능(일반학생전형) 전형요소 반영비율" 표를 살펴보았습니다. 해당 표에서 다군 전형의 경우, "수능" 항목에만 100%로 표시되어 있으며, 가산점 부분은 공란으로 남아 있습니다.
+따라서, 다군 수능(일반학생전형)에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8567946669289355</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 정보는 표 "2024학년도 주요 변경사항"에서 얻은 것입니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 추가적인 세부사항도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보가 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8023609046322903</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시 정각입니다. 이 시간까지 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 다른 전형에 대한 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 2024학년도 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 부적절하여 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7283231991903575</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **나군 실기/실적(경기실적우수자전형)**:
+   - 동점자 처리 기준 추가: 새로운 동점자 처리 순위와 기준이 추가되었습니다.
+   - 서류심사 기준 및 점수표 수정: 각 종목별로 세부적인 서류심사 기준과 점수표가 변경되었습니다.
+2. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - 최대선발 가능인원 조정: 일부 모집단위의 최대 선발 가능 인원이 조정되었습니다.
+   - 지원자격 추가 정보 제공: 지원 자격에 대한 추가 정보와 유형별 구분이 명시되었습니다.
+3. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 모집단위 및 인원 조정: 일부 모집단위의 모집인원이 변경되었습니다.
+   - 지원자격 추가 정보 제공: 재직자 전형에 대한 자격 요건과 산업체 적용 범위가 명시되었습니다.
+4. **재직자전형**:
+   - 제출서류 수정: 학력 서류와 지원 자격 증빙 서류의 내용이 변경되었습니다.
+   - 추가 정보 제공: 4대 보험 가입자와 미가입자의 구분에 따른 서류 제출 요건이 명시되었습니다.
+이러한 변화들은 각 전형별로 세부적인 요소가 수정되거나 추가되었음을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다. 추가적으로 제공된 표의 내용도 원본 정보와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않고 일치합니다. 모든 정보가 통합되어 일관된 메시지를 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기 비중에 직접적으로 관련된 정보를 제공합니다. 추가적인 표 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장 구조가 다소 복잡할 수 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 각 문장이 자연스럽게 이어져 전체적인 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다. 모든 정보가 맥락에 맞습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡할 수 있어 약간의 혼란을 줄 수 있습니다. 그러나 전반적으로 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7809094150507122</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 모집단위 / 수능 반영영역 / 반영영역별 반영비율 ```
+[표 내용]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+따라서 가군 실기/실적 전형에서는 수능 점수는 30%, 실기는 70%의 비중을 가지게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록과 신설된 학부에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.850225757353506</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+즉, 라이프융합학부는 3개의 세부 전공으로 구성되어 있으며, 이들 전공은 모두 신설된 내용입니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실관계에서 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보는 원본에 없고, '체육학과'가 누락되었습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.751749089974411</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 위주로 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 정확하게 나열하고 있으며, 추가적인 정보(신설 학과 등)를 제공하고 있습니다. 그러나 "경기지도학과는 신설된 학과로 실기/실적 위주 전형인 것으로 보입니다."라는 부분은 다소 불확실성을 내포하고 있어 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, "레저스포츠학과, 태권도학과는 일반학생전형인 반면"이라는 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기/실적 위주 전형에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 이어지지만, 일부 문장에서 정보의 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 경기지도학과에 대한 신설 여부에 대한 언급이 다소 불확실하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본에 명시되지 않아 의미의 적절성이 다소 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7539213002486349</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 (신설)
+이 중에서 레저스포츠학과, 태권도학과는 일반학생전형인 반면, 디자인조형학과와 체육학과는 실기/실적 위주 전형인 나군에 해당됩니다. 경기지도학과는 신설된 학과로 실기/실적 위주 전형인 것으로 보입니다.
+따라서, 실기/실적 위주 전형을 지원하려면 디자인조형학과, 체육학과 또는 경기지도학과 중에서 선택해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 설명이 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7867624437632338</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 제공하고 있습니다:
+1. 신설된 학과로, 세 가지 전공을 포함합니다:
+   - 스타트업창업투자학
+   - 뷰티비즈니스학
+   - 라이프생활문화학
+따라서 동의대학교 라이프융합학부는 이 3개의 전공을 통해 학생들에게 다양한 삶의 질 향상과 관련된 지식과 기술을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생들이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 일부 단과대학이나 모집단위에서 제한이 있을 수 있다는 추가 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 특정 단과대학이나 모집단위에서의 제한 사항에 대한 언급이 원문에 포함되어 있지 않아 일관성이 떨어집니다. 따라서, 원문과의 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 특수목적고등학교 출신 학생들의 지원 가능성에 대한 정보를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 특정 단과대학의 제한 사항에 대한 언급이 원문에 없으므로 정확성 점수가 다소 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있어 전체 점수가 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 추가 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5844264449593869</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 일반학생전형에 대한 정보를 바탕으로, 특수목적고등학교(과학고, 국제고, 외국어고, 체육고, 예술고 등) 학생들은 지원이 가능하지만, 일부 단과대학이나 모집단위에서는 제한될 수 있습니다.
+특히 다음과 같은 점을 유의해야 합니다:
+1. **지원 가능한 단과대학 및 모집단위**: 대부분의 일반학생전형은 특수목적고등학교 출신 학생들에게도 개방되어 있지만, 특정 계열이나 모집단위에서는 제한될 수 있습니다.
+2. **제한 사항**: 예를 들어, 인문사회과학대학의 일부 교직 관련 과정(중어중국학과 - 교직, 일본학과 - 교직 등)은 특수목적고등학교 출신 학생들의 지원을 제한할 수 있습니다.
+3. **모집인원**: 정원 내외를 구분하여 모집하고 있으며, 일부 단과대학에서는 정원 외 모집인원이 제한적으로 설정되어 있을 수 있습니다.
+따라서, 정확한 지원 가능 여부와 제한 사항을 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 확실합니다. 각 단과대학 및 모집단위별로 정확한 정보를 확인하시고 지원 가능성을 판단해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 건축공학과가 가장 많이 모집하는 학과로 잘못 언급되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 상충되는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 주제를 제대로 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 서로 연결되지 않고 독립적으로 제시되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 학과명과 모집 인원을 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다. 원본의 의도를 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7142250244956769</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 모집인원을 확인해야 합니다. 제공된 정보 중 나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원 표와 전형별 모집단위별 모집인원 표를 살펴보겠습니다.
+1. **나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원**:
+   - 이 표에서는 각 단과대학의 특정 학과들이 나열되어 있지만, 가장 많은 모집인원을 가진 학과는 공과대학의 '건축공학과(5년제)'로 39명입니다.
+2. **전형별 모집단위별 모집인원**:
+   - 이 표에서는 전반적인 모집인원을 보여주지만, 가장 많은 모집인원을 가진 학과는 공과대학의 '건축공학과(5년제)'로 39명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **공과대학 건축공학과(5년제)**로 39명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 설명하고 있지만, 원문에서 명시된 "마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다"는 내용을 명확히 반영하지 않고 있습니다. 또한, "特殊教育高中"이라는 표현은 원문에서 사용된 "특수목적고등학교"와 일치하지 않으며, 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특정 학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 그 내용을 명확히 반영하지 않고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 질문에 대한 직접적인 답변이 부족합니다. 원문에서 요구하는 정보와는 다소 거리가 있는 내용이 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 원문과의 일관성을 떨어뜨리기 때문에 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문에서 요구하는 정보와의 연결이 부족하여 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 해석이 포함되어 있습니다. 특히, 지원 자격에 대한 설명이 원문과 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 있으며, 이로 인해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 적절하지 않은 부분이 있어 원문과의 일치성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 연결이 약해 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.467370521347528</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（특수목적고등학교）的学生，则不符合东义大学农林地区学生招生资格。具体来说：
+- **支持资格**：6年制或12年制课程的毕业生，且满足以下条件之一：
+  - 在农村（邑·面）地区的中学和高中期间连续居住并就读。
+  - 不论父母居住地如何，在农村（邑·面）地区完成整个基础教育阶段（小学到高中）并在该地区居住。
+- **特殊教育高中**：东义大学明确指出，特殊教育高中的毕业生不符合农林地区学生招生资格。这意味着你作为特殊教育高中毕业的学生，不能通过农林地区学生的招生途径申请东义大学。
+因此，如果你是特殊教育高中毕业，则不能通过农林地区学生的招生途径申请东义大学。你需要查看其他适合你的招生类型和条件。建议访问东义大学的官方网站或联系学校招生办公室获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공한다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 허위 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5687429290198786</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 330.11 / 9.08
+따라서, 소프트웨어공학부의 최초합격자들의 국어, 수학, 탐구 과목의 가산점 포함 성적 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 허위 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 신뢰성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5713078865239739</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 374.70
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트의 주요 내용과는 다르게 추가적인 정보가 포함되어 있습니다. 원본 텍스트의 발표 일정과는 관련이 없는 다른 일정들이 포함되어 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 발표 일정과는 다른 내용이 포함되어 있으며, 서로 다른 일정들이 혼합되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 많습니다. 일부 정보는 관련이 있지만, 전체적으로는 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 내용이 혼합되어 있어 흐름이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 일정이 혼합되어 있어 논리적인 흐름이 부족합니다. 각 일정이 어떻게 연결되는지 명확하지 않아 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고 있으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 발표 일정과는 다른 일정들이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 전체적으로는 원본 텍스트의 맥락과 맞지 않는 정보가 많아 의미적으로 적절하지 않은 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 여러 일정이 혼합되어 있어 이해하기 어려운 부분이 있습니다. 정보가 명확하게 전달되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4641484909094304</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>以下是合并和整理后的表格内容：
+### 합격자 발표 일정
+| 내용 | 일정 | 비고 |
+| --- | --- | --- |
+| 모집인원 확정 공고 | 2024. 01. 02.(화) | 입학안내 홈페이지 공고 |
+| 원서접수(인터넷) | 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지 | http://ipsi.deu.ac.kr 或 http://www.uwayapply.com |
+| 서류 제출 (제출서류가 있는 경우) | 2024. 01. 03.(수)～2024. 01. 12.(금) 마감일 17시까지 도착 | 详见IV. 各类型详细说明 |
+| &lt;加&gt;군 实际考试 趣味体育学和跆拳道学 | 2024. 01. 16.(火) | 大厅及入场时间通知将于2024年1月12日(金)下午14:00后在入学信息网站查询 |
+| &lt;纳&gt;军 实际考试 设计造型学（视觉设计、工业设计、工艺设计）、体育学 | 2024. 01. 17.(水) | 大厅及入场时间通知将于2024年1月12日(金)下午14:00后在入学信息网站查询 |
+| 最初合格者公布及注册费缴纳 | 初次合格者公布 | 2024. 02. 02.(金) 14:00 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 最初合格者注册 | 2024. 02. 07.(水)～02. 13.(火) (银行营业时间内) | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者公布及注册费缴纳 第一次补充合格者公布 | 2024. 02. 14.(水) 09:00 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者注册 第一次补充合格者注册 | 2024. 02. 14.(水) 09:00~16:00 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者公布及注册费缴纳 第二次补充合格者公布 | 2024. 02. 15.(木) 09:00 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者注册 第二次补充合格者注册 | 2024. 02. 15.(木) 09:00~16:00 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者公布及注册费缴纳 第三次补充合格者以后 (个别电话通知) 公布 | 2024. 02. 15.(木) 19:00~ 2024. 02. 20.(火) 18时止 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+| 补充合格者公布及注册费缴纳 第三次补充合格者以后 (个别电话通知) 注册 | 2024. 02. 15.(木) 19:00~ 2024. 02. 20.(火) 18时止 | * 公布：通过网站个人查询 * 通知单发放：从网站打印或在入学事务办公室领取 * 注册地点：学校指定银行（注册通知书上注明） |
+### 注意事项
+- 所有申请者必须在公布的合格者公布日期内通过网站查看自己的合格情况。
+- 初次及补充合格者需按照公布的注册期限缴纳注册费，逾期未缴费视为自动放弃入学资格。</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접 일정에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 면접 일정(2024. 01. 20.)을 무시하고 일반적인 절차에 대한 추론만을 제시하고 있습니다. 이는 사실과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 명확한 면접 일정을 제시하고 있지만, 생성된 응답은 그 일정을 부정하고 일반적인 절차에 대한 정보만을 제공합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변으로는 적절하지 않으며, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 그러나 면접 절차에 대한 일반적인 정보는 포함되어 있어 일부 관련성을 인정할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일반적인 면접 절차에 대한 정보를 제공하지만, 원본 텍스트의 면접 일정과 관련이 없기 때문에 논리적인 흐름이 약간 부족합니다. 그러나 내부적으로는 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않기 때문에 매우 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 면접 일정에 대한 질문에 대한 적절한 답변이 아닙니다. 그러나 면접 절차에 대한 일반적인 정보는 포함되어 있어 일부 의미적 적절성을 인정할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부적절함으로 인해 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4117059516222362</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정확한 면접 일정이 포함되어 있지 않습니다. 하지만 일반적인 절차를 기반으로 다음과 같은 정보를 추론할 수 있습니다:
+1. 면접은 개별적으로 이루어집니다.
+2. 각 학생당 약 10분 이내에 이루어진다고 합니다.
+면접을 위해 가야하는 시간과 날짜는 일반적으로 다음과 같이 준비해야 합니다:
+- 제출서류 제출 후, 대략적인 면접 일정이 공지됩니다.
+- 대체로 면접은 서류 심사 후 1~2주 정도 뒤에 이루어집니다.
+- 정확한 날짜와 시간은 입학관리팀이나 관련 홈페이지를 통해 확인해야 합니다.
+따라서, 구체적인 면접 일정을 알고자 한다면:
+1. 본인의 서류 제출 여부를 확인합니다.
+2. 입학관리팀 또는 공지된 사이트에서 최신 정보를 확인합니다.
+3. 필요하다면 학교에 직접 문의하여 면접 일정을 확인합니다.
+이런 절차를 통해 정확한 면접 날짜와 시간을 알 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 언급하고 있지만, "대학이 일반적으로 요구하는 고등학교 졸업 또는 동등한 학력을 갖추어야 한다"는 내용은 원문에 명시되어 있지 않으므로 사실과 다소 다릅니다. 따라서 정확성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 추가된 정보가 원문과 일치하지 않거나 모순될 수 있는 부분이 있습니다. 예를 들어, "최저학력 기준이 없다"는 점은 일치하지만, 일반적인 대학의 요구 사항에 대한 언급은 원문에 포함되어 있지 않으므로 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으며, 한의예과의 최저학력 기준에 대한 정보를 제공하고 있습니다. 그러나 추가된 정보가 원문과 직접적으로 관련이 없으므로 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 일부 추가 정보가 원문과의 연결이 약할 수 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하는 부분이 있지만, 추가된 정보가 원문에 명시된 사실과 다를 수 있으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부는 긍정적이지만 다른 부분에서는 부족함이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 일부 추가 정보가 원문과의 맥락에서 벗어날 수 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 일부 복잡한 표현이 있을 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4092088700035812</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>依据提供的信息，韩医科（한의예과）没有特别指出具体的最低学力标准。通常情况下，大学会要求申请者具备一定的高中学历或其他同等学力。但是具体到韩医科的最低学力要求可能有所不同，建议直接参考该大学官方发布的招生简章或咨询学校招生办公室以获取最准确的信息。
+如果需要总结的话，可以这样说：
+- 韩医科没有特别指出具体的最低学力标准。
+- 通常要求具备高中学历或其他同等学力。
+- 最准确的要求应参照学校官方发布的信息。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 2024학년도 정시모집에 대한 구체적인 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 주제와의 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있어 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.6119841840040101</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 전반적으로 수능최저학력기준을 적용하지 않습니다. 
+특히 주요한 내용은 다음과 같습니다:
+- 정시모집에서 수능최저학력기준이 적용되지 않습니다.
+- 수능 최저학력 기준 없음이라는 표제 아래의 내용에서, 동의대학교는 2024학년도 정시모집에서 수능최저학력기준을 적용하지 않는다는 것을 명확히 합니다.
+따라서 2024학년도 동의대학교 정시모집에서는 수능최저학력기준이 없으므로 지원자는 해당 기준을 충족할 필요가 없습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 주요 내용을 포함하고 있지만, 1차 및 2차 발표 일정을 명시하지 않고 3차 이후 발표만 언급하고 있습니다. 따라서 일부 정보가 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 1차 및 2차 발표 일정이 누락되어 있어 일관성이 떨어집니다. 특히, 3차 이후 발표에 대한 언급은 있지만, 전체적인 일정을 고려할 때 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 직접적으로 관련이 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 설명이 일관되게 이어집니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 1차 및 2차 발표 일정이 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일부 정보의 누락으로 인해 전반적인 품질이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 누락으로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7644901270746026</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 1차 충원합격자 발표 날짜가 잘못 기재되어 있습니다. 원본 텍스트에서는 1차 발표가 2024년 2월 14일로 되어 있으나, 생성된 응답에서는 2024년 2월 2일로 잘못 언급되었습니다. 이로 인해 사실성이 낮아집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 특히, 1차 발표 날짜가 다르며, 추가적인 정보가 포함되어 있지만 원본의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 날짜로 인해 일부 정보가 혼란을 초래할 수 있습니다. 그러나 전체적으로는 충원합격자 발표 일정에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 중국어로 되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 발표 일정을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 1차 발표 날짜의 오류로 인해 전체적인 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 1차 발표 날짜가 잘못 기재되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 혼란스러울 수 있습니다. 그러나 전반적으로는 주제와 관련이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 잘못된 날짜와 언어의 혼합으로 인해 이해하기 어려운 부분이 있습니다. 특히, 중국어로 된 부분이 한국어 사용자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4382016021542868</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지 추가합格通知如下：
+- 第一次录取结果公布：2024年2月2日（周五）下午2点开始，在学校入学指导网站上进行。
+- 补充录取第一次公布：2024年2月14日（周三）上午9点开始，在学校入学指导网站上进行。
+- 补充录取第二次公布：2024年2月15日（周四）上午9点开始，在学校入学指导网站上进行。
+- 补充录取第三次及之后公布：2024年2月15日（周四）下午7点至2024年2月20日（周二）晚上6点，通过学校入学指导网站进行。
+补充录取的三次公布时间分别为：
+- 第一次补充录取：2024年2月14日上午9:00
+- 第二次补充录取：2024年2月15日上午9:00
+- 第三次及之后补充录取：2024年2月15日下午7:00至2024年2月20日周二晚上6:00
+请注意，所有考生必须在指定时间内登录学校入学指导网站查询自己的录取结果。</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 추가 모집에 대한 직접적인 언급이 없다고 명시하고 있으며, 이는 사실입니다. 그러나 응답에서 제시된 정보는 원본 텍스트의 내용을 완전히 반영하지 않으며, 일부 정보는 원본 텍스트와 관련이 없거나 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 언급하지만, 전체적으로 일관성이 부족합니다. 원본 텍스트의 핵심 내용인 추가 모집에 대한 명확한 설명이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하고 있지만, 직접적으로 추가 모집에 대한 질문에 대한 답변이 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 각 정보가 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 정확한 정보 전달이 부족합니다. 특히 추가 모집에 대한 명확한 설명이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성은 높지만 완전하지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히 추가 모집에 대한 명확한 언급이 없어서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5694638078231661</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>从提供的信息中,没有直接提到是否进行追加招生(추가모집),但有以下相关信息:
+1. 在"나군 학생부종합(조기취업형계약학과전형) - 정원외 동점자 처리기준 교과 성적 산출방법"表格中,提到了如果出现缺额,会根据候补顺序递补。
+2. "지원자 유의사항 (최초 및 충원 발표 및 등록금 납부)"部分提到:
+   - 如果首次录取人数不足,将从候补名单中依次递补。
+   - 2024年1月2日后放弃注册的考生名额将转入次年的普通生招生计划。
+3. "전형료"表格中列出了不同类型的考试费用,但没有直接提到追加招生的信息。
+综上所述,虽然没有明确说明进行追加招生,但从上述信息可以推断,如果首次录取人数不足,可能会通过候补递补或从其他类别转入名额等方式来完成招生计划。具体是否进行追加招生需要进一步确认。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 일부 정확한 정보를 포함하고 있지만, 지원 자격에 만 30세 이상인 자에 대한 언급은 원본 텍스트에 없으며, 모집 단위 및 인원에 대한 정보도 일부 다릅니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 모집 단위 및 인원에 대한 세부 사항이 다르며, 전형 요소에 대한 설명도 원본과 일치하지 않습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부 사항이 원본과 다르기 때문에 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본과 다르기 때문에 완전한 일관성을 보장하지는 않습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 다소 부족한 점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6856571855590664</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형의 하나로, 주요 특징은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집 단위 및 인원:
+   - 미래융합대학 라이프융합학부: 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) 11명
+   - 미래융합대학 부동산자산경영학부: 7명
+3. 전형 요소:
+   - 서류 평가 (70%)
+   - 면접 평가 (30%)
+4. 지원 자격 확인:
+   - 재직기간 3년 이상
+   - 4대 보험 가입자 또는 창업 및 자영업자 등
+5. 학생부종합평가 영역:
+   - 공동체역량: 협업능력, 학교폭력 여부 등
+   - 학업역량: 학업태도, 학업성취, 열정 등
+   - 전공적합성: 지원전공 관련 활동과 경험, 학업의지 등
+6. 동점자 처리:
+   - 면접고사 성적 상위자 우선
+   - 서류평가 공동체역량 영역 성적 상위자 우선
+   - 서류평가 전공적합성 영역 성적 상위자 우선
+7. 모집인원 제한:
+   - 연도별 입학정원의 4%를 초과하지 않음
+   - 모집단위별 입학정원의 10%를 초과하지 않음
+평생학습자전형은 평생교육을 받은 경험이 있는 성인 학습자를 대상으로 하며, 다양한 전공 분야에서 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.901763608606815</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 포함하고 있으며, 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능하다는 사실을 정확히 반영하고 있습니다. 그러나 추가된 날짜와 학과 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보가 과도하게 추가되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 학과별 실기고사 날짜는 원본 텍스트와 일관성이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과별 실기고사 날짜를 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6178567590848444</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 안내에 따르면, 실기고사는 다음과 같이 진행됩니다:
+1. **레저스포츠학과와 태권도학과의 실기고사**는 각각 다음과 같은 날짜로 진행됩니다:
+   - 레저스포츠학과: 2024년 1월 16일(화)
+   - 태권도학과: 2024년 1월 17일(수)
+2. **디자인조형학과, 체육학과의 실기고사**는 다음과 같은 날짜로 진행됩니다:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일(수)
+   - 체육학과: 2024년 1월 17일(수)
+3. **경기지도학과의 실기고사**는 다음과 같은 날짜로 진행됩니다:
+   - 배드민턴 (남): 2024년 1월 16일(화)
+   - 축구 (남): 2024년 1월 17일(수)
+각 실기고사는 해당 학과의 입학관리팀에서 진행되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지를 통해 제공됩니다.
+따라서, 실기고사는 해당 학과의 입학관리팀 또는 관련 부서로 문의하여 자세한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 제공된 정보와 관련이 없는 내용이 포함되어 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 모순되는 정보가 포함되어 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 전체적으로 일관된 주제를 가지고 있지 않아 논리적인 흐름이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 내용이 포함되어 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제와 관련이 없기 때문에 전체적인 이해도는 낮습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3154482778385595</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 이루어집니다:
+1. 세 가지 종목이 있습니다:
+   - 제자리 멀리뛰기 (240점)
+   - 메디신볼 던지기 (243점) 
+   - Z-런 (230점)
+2. 각 종목은 5시간 동안 진행됩니다.
+3. 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크나 축구화 등 특수화는 불가능합니다.
+   - 신발바닥에 이물질이 가착될 수 없도록 합니다.
+4. 메디신볼의 규격은 남자 3kg, 여자 2kg입니다.
+5. 기권한 경우 또는 반칙 시 최저점수를 부여받습니다.
+6. 실기 당일에는 운동복과 운동화를 준비해야 합니다.
+따라서 체육학과의 학생들은 이 세 가지 종목을 각각 5시간 동안 수행하여 점수를 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 전화로 개별 연락을 하지 않는다는 점과 합격 여부를 홈페이지를 통해 확인해야 한다는 점을 정확히 전달하고 있습니다. 그러나 일부 문구가 원본 텍스트의 내용을 직접 인용하지 않고 요약하여 표현했기 때문에 완전한 일치는 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 전화 연락이 이루어지지 않는다는 점과 홈페이지를 통해 확인해야 한다는 점에서 일관성을 유지하고 있습니다. 다만, 일부 추가적인 설명이 포함되어 있어 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 명확한 답변을 제공합니다. 모든 내용이 원본 텍스트의 핵심 사항과 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장이 추가적인 설명을 포함하고 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 전화 연락이 이루어지지 않는다는 점과 합격 여부 확인 방법에 대한 정보가 정확합니다. 그러나 일부 세부 사항이 생략되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 약간의 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 추가적인 설명이 원본의 의미를 약간 변형할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6911570091699373</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원자 유의사항에 따르면, 수시 충원합격자 발표 시 전화로 연락하지 않습니다. 합격 여부를 확인하려면 반드시 합격자 발표일에 우리대학 입학안내 홈페이지를 통해 조회해야 합니다.
+문구는 다음과 같습니다:
+"최초합격자 및 1차, 2차 충원합격자에게는 별도 개인 연락을 실시하지 않으며, 합격 여부 미확인으로 인해등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다."
+또한:
+"3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로 충원합격자 발표 기간(2024년 2월 15일(목)~2024년2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다."
+따라서, 합격 여부는 홈페이지를 통해 확인해야 하며, 전화로 연락이 오진 않습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 경찰행정학과의 수시모집 결과에 대한 정보를 제공하고 있지만, 원본 텍스트는 2023학년도 수시모집 결과에 대한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2023학년도에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2024학년도에 대한 정보를 제공하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 2024학년도에 대한 정보를 제공하지만, 원본 텍스트는 2023학년도에 대한 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 주제와 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 문제로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도에 대한 정보를 제공하는 데 있어 구조적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 2023학년도에 대한 정보가 없다는 원본 텍스트의 사실을 무시하고 2024학년도에 대한 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 2024학년도에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 일관성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6642866309993153</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2024학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만, 2024학년도 모집에 대한 일반적인 정보를 요약하면:
+- 2024학년도 경찰행정학과의 모집인원은 7명입니다.
+- 지원 인원은 총 29명이 지원했습니다.
+- 경쟁률은 약 4.14:1로 나타났습니다.
+최종 합격자들의 수능 점수 평균 및 표준편차는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 330.71 / 7.92
+- 영어 등급: 3.14 / 0.83
+- 수능 4개 영역 등급: 3.87 / 0.14
+이 정보는 2024학년도 모집에 대한 것입니다. 2023학년도의 정확한 결과는 제공된 데이터에서 찾을 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 정보를 제공합니다. 경기지도학과는 수능 없이 지원할 수 있다고 언급하지만, 이는 전체 전형에 대한 잘못된 해석입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 특정 전형에서 수능 없이 지원할 수 있다고 주장합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 제공하고 있으며, 관련 정보를 추가로 포함하고 있습니다. 그러나 원문에서 명시된 조건과는 다소 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원문과의 연결이 명확하지 않아 일관된 구조를 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 상충하는 내용을 포함하고 있습니다. 경기지도학과의 수능 미응시 지원 가능성에 대한 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4702926873992169</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히 실기/실적전형인 경기지도학과는 수능 없이 지원할 수 있습니다.
+다음은 관련 정보입니다:
+1. **경기지도학과 (나군 실기/실적(경기실적우수자전형))**:
+   - 이 전형에서는 수능을 응시하지 않아도 지원 가능합니다.
+   - 모집인원: 배드민턴(남) 3명, 축구(남) 4명
+   - 실기/실적 요소 반영 비율: 학생부교과 18%, 출결 12%, 서류(경기실적) 70%
+이외의 전형들은 수능 응시가 필수입니다. 따라서 수능을 응시하지 않아도 지원 가능한 유일한 전형은 경기지도학과입니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고, 일반적으로 지원이 어려울 것이라는 내용을 담고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문은 지원 가능성을 강조하는 반면, 생성된 응답은 지원이 어려울 것이라고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 지원에 대한 일반적인 정보는 제공하지만, 원문에서 다루고 있는 특정 상황(10년 후 정시 지원 가능성)에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 제공하지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 각 항목이 독립적으로 나열되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 원문과 크게 다르기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 주제와 관련된 정보가 부족합니다. 따라서 의미적 적절성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 적절성 때문에 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.5245611184151144</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业十年后申请大学的情况比较少见。不同国家和地区的具体规定可能有所不同，但通常情况下：
+1. 大多数大学对申请者的最高学历有时间限制，通常是最近的高中或同等学历。
+2. 超过一定年限（如10年）后申请可能会遇到困难，因为学校更倾向于招收近期毕业的学生。
+3. 如果你确实想申请，可以考虑以下途径：
+   - 成人教育课程
+   - 开放大学或其他灵活学习项目
+   - 重新参加高中或同等学历考试
+4. 部分特殊专业（如某些艺术、体育等）可能会有例外情况，但需要具体咨询目标学校。
+5. 可以联系目标学校的招生办公室了解具体情况和可能的途径。
+建议你直接联系东国大学的招生办公室确认具体的申请资格和要求。他们能提供最准确的信息并指导你完成申请流程。</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 정보가 아니라, 2023년의 다른 대학의 정시 일정에 대한 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 정보를 제공합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 일정과 관련이 없으며, 주제와 전혀 관련이 없습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 잘못되었기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용이 잘못되었기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.4761785319465765</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>东义大学的定期招生（Regular Admission）时间表如下：
+1. **2023年9月15日** - 开始接受申请。
+2. **2023年10月14日** - 截止接受申请。
+3. **2023年10月16日-17日** - 进行资格审查和面试（针对部分专业）。
+4. **2023年10月18日** - 公布初审结果，考生可登录学校官网查询。
+5. **2023年10月20日** - 面试结束。
+6. **2023年10月27日-29日** - 进行专业课考试（针对部分专业）。
+7. **2023年11月4日** - 公布专业课成绩，考生可登录学校官网查询。
+8. **2023年11月5日** - 举行新生入学说明会。
+请注意，以上信息是基于提供的数据进行的翻译和解释。如果有任何具体问题或需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9335788478731538</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 방법: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각 사이트에서 확인 필요
+   - 접수사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 도착 시간까지
+   - 대상: 서류 제출이 필요한 전형의 지원자
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - **가군 레저스포츠학과, 태권도학과**: 2024년 1월 16일 (화)
+   - **나군 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과**: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 
+     - 가군, 나군, 다군: 2024년 2월 2일 (금) 14시
+   - **최초 합격자 등록**: 
+     - 2024년 2월 7일 (수) ~ 2월 13일 (화), 은행 마감 시간 내
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수) 9시, 16시까지
+     - 2차: 2024년 2월 15일 (목) 9시, 16시까지
+     - 3차 이후: 개별 전화 통보
+이 일정은 홈페이지를 통해 공고되며, 지원자는 이에 따라 원서접수와 서류제출을 진행해야 합니다. 또한 합격 여부는 홈페이지에서 확인할 수 있으며, 등록금 납부 기한 내에 등록해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 따르면, 수능 미응시자는 지원이 불가능하다고 명시되어 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 수능 미응시자가 지원할 수 있는 전형에 대한 정보는 원본 텍스트의 내용과 상반되므로, 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 수능 미응시자에 대한 잘못된 정보가 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.687315278860211</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**
+2. **학생부종합(성인학습자(정원내·외)전형)**
+3. **학생부종합(재직자전형)**
+이러한 전형들은 수능 성적을 요구하지 않거나, 수능 미응시자를 포함하여 지원 가능하도록 제도화되어 있습니다.
+특히:
+- **학생부종합(평생학습자전형)**
+- **학생부종합(성인학습자(정원내·외)전형)**
+- **학생부종합(재직자전형)**
+는 주로 학생부 교과 성적, 면접 등 다양한 평가 요소를 통해 지원자를 선발합니다. 수능 미응시자도 이러한 평가 기준에 따라 지원이 가능합니다.
+참고로, 각 전형별 세부 조건이나 요구 사항은 동의대학교 공식 홈페이지나 모집요강을 확인하시면 자세한 내용을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 원문에 따르면 전년도 충원 합격은 36명까지 이루어졌다고 하였으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답은 3차까지 이루어졌다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 제공하는 정보와는 관련이 적습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있어, 생성된 응답은 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 논리적 흐름이 부족합니다. 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답은 3차까지 이루어졌다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 원문과 다르게 해석될 수 있는 부분이 많습니다. 원문에서 명시된 정보와 상충하여 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 신뢰성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5287143414661142</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2023년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 이는 각각 1차 최초합격, 2차 충원합격, 그리고 3차 추가충원합격을 거쳤음을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하는 반면, 생성된 응답은 전화번호에 대한 언급이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 입학관리팀의 연락처에 대한 질문에 대한 직접적인 답변을 제공하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호와 관련된 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.4610688275845704</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学入学处的电话号码。为了获取准确的联系方式，建议访问东义大学的官方网站或通过其官方社交媒体渠道查找最新的联系信息。通常大学官网上的“联系我们”页面会提供详细的联系方式，包括电话、邮箱和办公时间等。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으나, "충원합격이 어려운 경우"라는 표현이 원본의 "충원합격 통보가 어려운 경우"와 다소 다르게 해석될 수 있어 약간의 차이가 있습니다. 그러나 전반적으로 사실관계는 잘 유지되고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "충원합격은 되었으나"라는 부분이 원본의 의미와 약간의 차이를 보일 수 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 잘 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있으나, "전화 연락 두절(3회 통화)로 인해" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 그러나 일부 표현에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 일부 표현에서 다소의 오해를 불러일으킬 수 있는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 의미 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문구에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.9664392670201568</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우, 충원합격은 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에서 요구하는 서류와 다소 다릅니다. 예를 들어, '농어촌학생증명서'와 '가정 형편 증빙자료'는 원본 텍스트에 명시되어 있지 않으며, '추천서' 또한 원본에 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트에서 요구하는 서류 목록과 생성된 응답의 서류 목록이 서로 다릅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 요구 사항을 정확히 반영하지 않기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 따라서 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 요구 사항을 정확히 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 그러나 일부 정보가 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.6763736897506551</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야 할 주요 서류는 다음과 같습니다:
+1. **고교 학교생활기록부** (1부)
+   - 학생부 온라인 제공 동의자는 이 서류를 제출할 필요가 없습니다.
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+2. **농어촌학생증명서** (1부)
+   - 농어촌 학생으로 인정받기 위한 증명서입니다.
+   - 해당 지역의 농업기술센터나 농협 등에서 발급 받을 수 있습니다.
+3. **가정 형편 증빙자료**
+   - 가정의 경제적 어려움을 입증할 수 있는 서류 (예: 소득증명서, 재산증명서 등)
+4. **추천서** (필요한 경우)
+   - 학교나 지역사회에서 받은 추천서
+5. **기타 필요한 서류**
+   - 각 대학이 요구하는 추가적인 서류가 있을 수 있으므로 확인이 필요합니다.
+주의사항:
+- 위 서류 중 성취도, 석차 또는 석차등급이 기재된 경우만 반영됩니다.
+- "Ⅰ(1)"이나 "Ⅱ(2)"가 포함된 과목은 모두 반영과목에 해당합니다.
+- 고교에서 이수한 국어, 수학, 외국어(영어), 사회(역사/도덕포함), 과학, 한국사 교과에 해당되는 과목도 반영과목에 포함됩니다.
+이러한 서류를 정확하게 준비하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 누락하고 있으며, 외국고교 졸업자에 대한 정보가 추가되어 있지만, 원본 텍스트에서 요구하는 서류와 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 외국고교 졸업자에 대한 서류 요구 사항이 원본 텍스트와 상충합니다. 이로 인해 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 요구 사항과 일치하지 않아 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 요구 사항을 정확하게 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8259701536360895</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시, 12년 과정의 경우 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업(예정)자 / 외국고교 졸업(예정)자 : 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+추가로 주의할 점:
+- 최종등록자 중 외국고교 졸업예정자는 졸업 이후에 발급한 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+따라서 기본적으로는 제출서류가 필요하지 않지만, 최종등록 후 외국고교 졸업증명서의 추가 제출이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 일반적인 고등교육 경향에 대한 언급이 포함되어 있어 원문과의 일치성이 떨어진다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 기회균등 전형이 존재하지 않는다는 점에서 모순이 있다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 기회균등 전형에 대한 직접적인 언급이 부족하여 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 약해 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석이 포함되어 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 관련성이 떨어져 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4762595914139742</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到关于低收入机会均等类型的招生计划。为了得到准确答案，建议访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和相关信息。
+不过，根据一般的高等教育趋势，许多学校确实设有针对低收入家庭学生的特殊招生计划或奖学金项目来促进教育公平。如果东国大学有类似的计划，通常会在其官方招生信息中详细说明。建议直接查询该校官网获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 평균 산출 방식에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서 명시된 "구체적인 절사 여부에 대한 정보가 포함되어 있지 않다"는 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사 처리에 대한 구체적인 내용을 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급 평균 산출 방식에 대한 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성 점수가 낮습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계가 명확하지 않아 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.621598033456304</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 학생부종합전형에서 수능 최저등급 평균산출 방식에 대한 답변을 드리겠습니다.
+1. **평균 산출 방법**: 수능 최저등급은 사탐 2과목의 등급을 평균하여 산출합니다.
+2. **2.5등급 처리**:
+   - 동의대학교는 등급 평균산출 시 소수점 셋째 자리에서 절사 처리를 합니다.
+   - 따라서 2.5등급은 소수점 이하를 절사하여 2등급으로 처리됩니다.
+따라서, 사탐 2과목의 평균이 2.5등급이라면, 동의대학교에서는 이를 2등급으로 처리합니다.
+참고로, 동의대학교는 다음과 같은 내용을 명시하고 있습니다:
+```
+동점자 처리기준별 등급 평균 산출 불가 시 9등급으로 적용하며, 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다.
+```
+따라서, 2.5등급은 2등급으로 처리되며, 이는 동점자 처리 기준에 영향을 미치지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 이루어진다는 사실을 정확하게 반영하고 있습니다. 그러나 "최초합격자 발표"와 "최종등록자 충원 합격자 발표" 등의 세부 사항은 원본 텍스트에 명시된 발표 일정과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 3차 발표가 있다는 점에서 일관성을 보이지만, 발표의 구체적인 일정이나 방식에 대한 설명이 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 정시 충원 합격자 발표에 대한 질문에 직접적으로 관련된 내용을 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 단계가 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표가 3차까지 이루어진다는 점에서 정확하지만, 구체적인 날짜와 시간에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 표현이 원본과 다르게 해석될 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있으나, 일부 세부 사항에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6167347949559407</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 충원 합격자는 총 3차로 발표됩니다:
+1. 최초합격자 발표 (이미 표에 포함)
+2. 최종등록자 충원 합격자 발표
+3. 추가 등록자 충원 합격자 발표
+따라서, 정시 충원 합격자는 총 3차로 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 평균 점수와 관련된 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치와 기준을 잘못 인용하고 있습니다. 예를 들어, "국어 + 수학 + 두 개의 선택 과목의 표준화 변환 점수 총합: 427.50"이라는 정보는 원본 텍스트에 없으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트에서 제공된 평균 점수와 다르게 다른 수치를 제시하고 있으며, 이는 원본의 내용을 왜곡합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용을 포함하고 있습니다. 원본 텍스트의 평균 점수와 관련된 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 분산되어 있어 주제를 명확히 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 평균 점수와 관련된 수치가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5617220598366098</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息：
+1. e비즈니스학과 (eBusiness) 的招生计划和录取标准。
+2. 该专业的最低录取分数线（如果有的话）。
+3. 您提供的4.6的分数在所有科目中的表现如何。
+根据您提供的信息，我们可以做一些假设性的分析：
+1. 根据之前的表格，“多军”(D군)的一般学生招生中，e비즈니스학과 (eBusiness) 的录取标准是：
+   - 国语 + 数学 + 两门选修课（社会/科学）的标准化转换分数总和：427.50
+   - 英语等级分：3.82
+假设您的4.6在所有科目中的表现都很好，那么您的综合成绩应该会接近或超过这个标准。
+但是，具体是否能通过还需要考虑以下几个因素：
+- 该专业的最低录取分数线（如果有的话）。
+- 您的英语等级是否达到要求。
+- 是否有其他竞争者也达到了类似的分数。
+建议您查看具体的招生简章和往年录取数据，以获得更准确的信息。如果没有明确的最低分数线，可以尝试联系学校获取更多信息或咨询具体的专业老师。
+如果您需要进一步的帮助，请提供更多的详细信息，例如：
+- 该专业的具体招生计划。
+- 您的完整成绩单（包括各科目的标准化转换分数）。
+- 是否有其他科目也达到了较高的标准。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에 따르면 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53인데, 생성된 응답에서는 영어 등급 평균이 3.20으로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 영어 등급 평균과 수능 4개 영역 등급 평균이 다르게 제시되어 있어 일관성이 떨어집니다. 또한, 경쟁률과 관련된 정보도 원본 텍스트와는 다른 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, e비즈니스학과의 입학 기준에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있습니다. 특히, 평균 등급과 관련된 수치가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있지만, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6641228743701107</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要参考ebiznesis学类的录取标准。根据提供的表格数据，“e비즈니스학과”的相关信息如下：
+- 招生人数：30人
+- 报名人数：89人
+- 竞争率：8.90
+- 国语+数学+选修（含加分）标准化总分平均值/标准差 { 438.60 / 6.87 }
+- 英语等级平均值/标准差 { 3.20 / 1.24 }
+- 四个科目等级平均值/标准差 { 4.17 / 0.19 }
+- 含加分的四个科目标准化总分平均值/标准差 { 438.60 / 6.87 }
+从这些数据来看，e비즈니스学类的竞争率是8.90，意味着每个名额有近9名学生竞争。同时，该专业的国语+数学+选修（含加分）标准化总分平均值为438.60，标准差为6.87。
+如果一个学生的等第为5.3，在韩国大学入学考试中，这通常对应于非常高的分数水平。具体来说，5.3的等级意味着该学生在相应科目中的成绩非常高，远高于平均分。
+因此，虽然竞争率较高（8:1），但如果你的学生英语和四个科目的等级达到或超过5.3，那么他/她有可能获得e비즈니스学类的录取。然而，这仍然取决于其他申请者的具体分数情况以及学校的具体录取标准。
+建议查看最新的招生简章或直接咨询学校以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 질문에 대해 전혀 관련이 없는 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 충원합격 순위와 관련된 정보는 전혀 반영되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. e비즈니스학과의 예비 합격 가능성에 대한 정보가 전혀 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4110825819467897</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **个人成绩**：您提供的信息中没有具体的成绩数据。通常，eBiz专业（电子商务学）的录取标准会参考学生的国语、数学和两门选修科目的等级。
+2. **竞争情况**：不同专业的竞争程度可能有所不同。从表格中的数据来看，eBiz专业的竞争率相对较高，例如：
+   - 2024年eBiz专业的实际录取率为8.90。
+   - 最高分大约在438.60左右（标准转换分数）。
+3. **往年分数线**：虽然没有具体的数据，但可以参考其他类似专业的情况。例如，经管类专业的平均录取分数通常较高。
+基于以上信息，我们可以进行一些推测：
+- 如果您的成绩接近或略高于438.60的标准转换分数，并且在英语和选修科目方面表现良好（如达到A等级），那么您有可能获得预录取资格。
+- 但是，考虑到eBiz专业的高竞争率，仅仅达到这个分数线可能还不够。通常需要比平均分稍高的成绩才能确保预录取。
+建议：
+1. **详细查看自己的成绩单**：确认国语、数学和选修科目的具体等级。
+2. **参考往年数据**：了解该专业历年的实际录取分数范围。
+3. **咨询学校招生办公室**：获取更准确的指导信息，特别是针对您的具体情况。
+希望这些信息对您有所帮助！如果有更多详细成绩或其他相关信息，请提供给我，我可以给出更加具体的建议。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있지만, 일부 수치가 정확하지 않거나 출처와 일치하지 않습니다. 예를 들어, "최종 등록자의 평균 점수"와 관련된 수치가 원본 텍스트와 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 수치와 정보가 혼합되어 있어 일관성이 떨어집니다. 특히, 평균 점수와 관련된 부분에서 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 특정 수치와 관련하여 오류가 있어 정확성이 떨어집니다. 특히 평균 점수와 관련된 부분에서 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 수치의 불일치로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6198104963462354</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44라는 국어+수학+탐구(2개) 표준 변환 점수는 동의대학교 간호학과의 경쟁률과 모집인원을 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+간호학과에 대한 몇 가지 주요 정보:
+1. 2024학년도 모집 인원: 22명
+2. 최종 등록자 지원 인원: 145명
+3. 경쟁률: 6.59대 1
+최종 등록자의 평균 점수는 다음과 같습니다:
+- 국어+수학+탐구(2개) 표준 변환 점수 합: 303.44
+- 영어 등급: 1.86
+- 수능 4개 영역 등급: 3.12
+3.44라는 점수가 최종 등록자 평균 점수(303.44)보다 훨씬 낮습니다. 이는 경쟁률이 매우 높고, 합격을 위한 점수가 상당히 높은 것을 의미합니다.
+따라서 3.44라는 점수로는 동의대학교 간호학과에 합격하기 어려울 것으로 보입니다. 그러나 최종 등록자 중에서 가장 낮은 점수도 297.28이므로, 조금 더 높은 점수를 얻었다면 가능성이 있을 수 있습니다.
+결론적으로, 현재의 점수로는 합격 가능성은 매우 낮다고 판단할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 "정시 등급이 2.52라면 합격 가능성이 높다"는 내용을 반영하지 않고 있습니다. 오히려 2.52라는 성적이 낮다고 평가하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본에서는 2.52가 평균보다 높은 성적이라고 언급하지만, 생성된 응답에서는 이를 낮다고 평가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 간호학과의 성적 기준과 경쟁률에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변은 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 2.52라는 성적에 대한 평가가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6182301009541457</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능 성적 기준을 보면, 다음과 같은 정보가 있습니다:
+- 모집인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59대 1
+최종 등록자들의 성적 평균은:
+- 국어 + 수학 + 탐구(2개) (가산점 포함): 357.63
+- 영어: 1.86
+- 수능 4개 영역: 3.12
+이 정보를 바탕으로 판단해보면:
+1. 경쟁률이 매우 높습니다(6.59대 1).
+2. 최종 등록자들의 성적 평균은 357.63입니다.
+3. 2.52는 이 수치에 비해 상당히 낮습니다.
+따라서, 2.52라는 성적이 간호학과의 최종 합격 가능성은 매우 낮다고 볼 수 있습니다. 
+하지만 정시 모집에서 성적 외 요인(면접 등)도 고려되므로, 모든 것이 결정적인 것은 아닙니다. 하지만 성적으로 보면 매우 어려운 경쟁을 해야 합니다.
+추천:
+- 다른 학과나 대학을 검토해보는 것도 좋습니다.
+- 추가 지원 전략(예: 면접 준비 등)을 고려해볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.7의 성적이 낮다는 점을 강조하고 있습니다. 그러나 구체적인 경쟁률 수치(6.59, 7.20 등)는 출처 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 내용과 대체로 일치하며, 3.7의 성적이 낮다는 점을 일관되게 전달하고 있습니다. 그러나 경쟁률에 대한 구체적인 수치가 출처 텍스트에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 간호학과의 합격 가능성에 대해 직접적으로 관련된 정보를 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있습니다. 그러나 경쟁률 수치와 같은 추가 정보는 출처에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 추가 정보는 출처와 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.576112487066609</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 간호학과의 경쟁률이 매우 높아 보이는 점을 고려하면, 합격 가능성은 낮다고 볼 수 있습니다.
+간호학과의 특징:
+1. 경쟁률이 매우 높습니다 (예: 6.59, 7.20 등).
+2. 국어와 수학, 영어 등급이 높게 평균을 내고 있습니다.
+3. 탐구 과목에서도 높은 점수를 받는 경향이 있습니다.
+3.7의 성적은:
+- 대부분의 경우, 간호학과의 최소 합격 기준보다 낮습니다.
+- 가산점까지 포함해도 4.0을 넘지 못할 가능성이 높습니다.
+추천 사항:
+1. 다른 전형(예: 특기자전형, 실기전형 등)을 고려해보세요.
+2. 간호학과의 입학사정관에게 상담을 받으시는 것이 좋습니다.
+3. 추가 학습이나 준비를 통해 성적을 향상시키는 것을 고려해 보세요.
+결론적으로, 3.7의 성적만으로 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 다른 전형을 검토하거나 추가적인 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보가 잘못되었습니다. 원문에서는 2.58이 평균 등급보다 높다고 언급했으나, 생성된 응답은 2.58이 낮다고 주장하고 있습니다. 이는 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 2.58이 합격 가능성이 높다고 했지만, 생성된 응답은 반대로 매우 어려울 것이라고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 제시된 긍정적인 가능성을 무시하고 부정적인 정보에 초점을 맞추고 있습니다. 그러나 여전히 관련된 조언을 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 이유를 나열하고 있지만, 논리적인 흐름이 다소 부족합니다. 각 이유가 원문과의 관계를 명확히 설명하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 맞지 않는 내용을 포함하고 있습니다. 특히, 2.58이라는 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 부적절한 해석이 포함되어 있습니다. 원문의 긍정적인 가능성을 간과하고 부정적인 해석을 강조하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 제안 사항도 명확하게 제시되어 있습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5933515466531842</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수로 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. 간호학과의 경쟁률이 매우 높습니다 (6.59).
+2. 최초합격자 중 간호학과의 평균 수능 점수는 357.63점으로, 2.58점은 훨씬 낮습니다.
+3. 동의대학교 간호학과는 매우 인기 있는 학과로, 경쟁이 치열합니다.
+4. 정시 전형에서도 수능 점수가 중요한 평가 요소 중 하나입니다.
+5. 2.58이라는 점수는 대부분의 모집단위에서 낮은 등급으로, 합격 가능성은 매우 낮습니다.
+추천 사항:
+1. 다른 학과를 고려해보세요.
+2. 정시 외에 특기자나 인성고사 등 다른 전형을 준비해보세요.
+3. 수능 점수 향상을 위해 추가 공부를 해보세요.
+4. 대학 입학 지원 컨설팅 서비스를 활용해보세요.
+정시로 합격하기는 어렵지만, 다양한 방법으로 지원 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 직접적인 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트에서 명확히 언급된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 사실을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 7번의 상황에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본의 주장을 반박하는 내용이 포함되어 있지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 질문에 대한 일반적인 조언을 제공하지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 일관성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조언을 제시하지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 원본의 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 예비 7번의 합격 가능성에 대한 구체적인 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하지 않으며, 질문에 대한 직접적인 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 질문에 대한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4914703273490365</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接说明游戏学系（Game Design and Development）的7号预录考生是否会被录取。为了确定你是否有被录取的机会，你可以参考以下步骤：
+1. **查看录取标准**：了解游戏学系的具体录取标准和流程。
+2. **联系招生办公室**：直接联系学校的招生办公室或相关院系，询问关于预录考生的具体情况以及录取的可能性。
+3. **关注学校官网通知**：定期访问学校的官方网站，查看是否有最新的录取信息更新。
+通常情况下，如果预录考生的分数和其他条件符合要求，且名额未满，则有可能被正式录取。建议你尽快与学校取得联系以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수 4.16에 대한 해석을 제공하고 있지만, 영어 등급 점수가 4등급이라는 추정은 다소 주관적이며, 원문에서 제공된 평균 등급과의 비교가 부족합니다. 또한, 추가 합격 횟수에 대한 예측이 원문과 일치하지 않으며, 이는 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 합격 가능성과 관련된 정보를 포함하고 있지만, 특정 전형에 대한 합격 가능성을 제시하면서 원문에서의 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 내용을 다소 모순되게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 있으며, 수능 점수와 전형에 대한 정보를 제공하고 있습니다. 그러나 원문에서의 추가 합격에 대한 불확실성을 간과하고 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성을 떨어뜨릴 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 다소 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수에 대한 해석과 전형에 대한 정보를 제공하지만, 원문에서의 평균 등급과의 비교가 부족하고, 추가 합격 횟수에 대한 예측이 원문과 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 주관적인 해석이 포함되어 있어 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6618793376909793</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 영어 등급점수가 대략 4등급 정도로 추정됩니다.
+동의대학교 게임공학과는 일반적으로 다음과 같은 전형으로 이루어져 있습니다:
+1. 가군(일반학생전형): 
+   - 수능 반영 비율: 국어 + 수학 + 영어 등급점수 + 탐구
+   - 동점자 처리 기준 중 영어 등급 점수가 중요한 역할을 합니다.
+2. 나군(평생학습자, 성인학습자, 재직자 전형):
+   - 서류평가와 면접 평가를 통해 학업역량과 전공적합성을 평가합니다.
+   - 영어 등급 점수가 중요한 요소는 아닙니다.
+3. 다군(일반학생전형): 
+   - 수능 반영 비율: 국어 + 수학 + 영어 등급점수 + 탐구
+   - 동점자 처리 기준 중 영어 등급 점수가 중요한 역할을 합니다.
+4. 조기취업형 계약학과 전형:
+   - 서류평가와 면접 평가를 통해 학업역량과 전공적합성을 평가합니다.
+   - 영어 등급 점수가 중요한 요소는 아닙니다.
+영어 4등급은 상대적으로 낮은 점수로, 동의대학교 게임공학과의 경우 일반적으로 3등급 이상이 요구되는 경향이 있습니다. 따라서:
+- **가군(일반학생전형)**: 합격 가능성은 매우 낮습니다.
+- **나군(평생학습자, 성인학습자, 재직자 전형)**: 합격 가능성은 높습니다. 서류와 면접을 잘 준비한다면 충분히 합격할 수 있습니다.
+- **다군(일반학생전형)**: 합격 가능성은 낮습니다.
+- **조기취업형 계약학과 전형**: 합격 가능성은 높습니다. 서류와 면접을 잘 준비한다면 충분히 합격할 수 있습니다.
+따라서, 추가로 받을 수 있는 합격 횟수는 다음과 같습니다:
+- **나군(평생학습자, 성인학습자, 재직자 전형)**: 1~2번
+- **조기취업형 계약학과 전형**: 1~2번
+이러한 추정은 수능 점수만을 기준으로 한 것이므로, 지원자의 학교생활기록부, 면접 성적 등 다른 요소도 고려해야 합니다. 따라서 최종 합격 가능성은 추가적인 정보를 바탕으로 정확히 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급에 대한 정보와 경쟁률에 대한 데이터를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 관련이 적고, 잘못된 정보가 포함되어 있습니다. 예를 들어, 원본 텍스트는 3.75의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 3.75의 성적이 합격 가능성이 높다고 명시했지만, 생성된 응답은 이와 상반되는 주장을 하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 3.75 성적의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있으며, 3.75 성적에 대한 해석이 잘못되었습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5263913431140838</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据提供的表格信息，“经营信息学”（경영정보학과）的相关数据如下：
+- **2024年招生单位**: 经营信息学
+- **招生人数**: 16人
+- **申请人数**: 95人
+- **竞争率**: 5.91倍
+从这些数据中，我们可以看到经营信息学的录取竞争相对较高。但是，仅凭成绩3.75这个分数无法直接判断是否能被录取为最终注册者（최종등록자），因为还需要考虑其他因素如排名等。
+根据“其他事项”部分提供的信息：
+- **其他科目中的成绩、等级或等级排名**将被纳入考量。
+- **平均等级计算时会四舍五入到小数点后三位**。
+因此，仅凭3.75这个分数无法直接判断能否录取。需要结合学生的整体学术表现（包括其他科目的成绩和排名）来综合评估。
+建议：
+1. 查看经营信息学的具体招生要求。
+2. 了解你的排名情况和其他科目成绩。
+3. 如果可能的话，咨询学校或招生办公室获取更准确的信息。
+综上所述，仅凭分数无法直接判断能否被最终注册为经营信息学的学生。需要结合其他因素进行综合评估。</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 영어 등급 평균과 수능 4개 영역 등급 평균을 언급하고 있지만, 전체적인 맥락에서 잘못된 정보를 포함하고 있습니다. 예를 들어, "최초등록자"와 관련된 평균 성적이 언급되지 않았고, 4.2라는 성적이 평균보다 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.2가 평균보다 낮다고 명시하고 있지만, 생성된 응답에서는 4.2가 영어 등급에서 매우 높다고 언급하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학 가능성에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 벗어난 정보가 포함되어 있습니다. 따라서 관련성은 있지만, 원본의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 특히, 4.2라는 성적에 대한 해석이 일관되지 않아 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 4.2라는 성적에 대한 해석이 잘못되어 있으며, 평균 성적에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 4.2라는 성적에 대한 해석이 원본과 상충하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 내용의 일관성과 정확성이 부족하여 이해하기 어려운 부분이 있습니다. 특히, 성적에 대한 해석이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5949198738668131</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了判断您是否有可能成为经营信息学部(经管学院)的初录学生，我们需要参考一些关键数据：
+1. 经营信息学部在2024年招生计划中的录取人数为9人。
+2. 最初录取者的平均成绩是326.89分（标准差为6.92）。
+3. 英语等级的平均值为2.88，标准差为0.56。
+4. 四个科目（国文、数学、外语和综合）的标准转换分数总和的平均值是450.78分（标准差为5.90）。
+根据这些信息：
+- 您的成绩为4.2，在英语等级上已经非常高了，远超平均值。
+- 但是，您的成绩在其他科目上的表现需要进一步分析。如果您的总分能够达到或超过326.89分，并且综合分数也较高的话，那么您有可能成为初录学生。
+建议：
+1. 计算一下您的总分是否接近或超过了326.89分。
+2. 确保您的综合分数（国文、数学和外语的总和）也足够高。
+3. 考虑到竞争激烈，即使成绩接近也可能需要考虑备选方案。
+综上所述，虽然您的英语等级非常高，但还需要进一步确认其他科目的表现是否能够达到录取标准。建议您详细计算一下自己的总分，并参考往年的数据进行综合评估。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 평균을 4.53로 제시하고 있지만, 원본 텍스트에서는 경영정보학과의 수능 4개 영역 등급 평균이 4.31이라고 명시되어 있습니다. 또한, 5.33의 성적이 평균보다 낮다고 언급했으나, 생성된 응답에서는 높은 합격 가능성을 주장하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 수능 성적이 평균보다 낮다고 하면서도 합격 가능성이 높다고 주장하는 모순이 있습니다. 이러한 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 질문에 대한 답변으로 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 경영정보학과의 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 평균을 잘못 제시하고 있으며, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 내용의 모순으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6215529734067039</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최초합격자 정보를 보면, 수능 성적 평균이 4.53이고 표준편차가 0.67입니다.
+- 평균 점수 : 4.53
+- 표준 편차 : 0.67
+주어진 수능 성적 5.33은 이 통계치를 크게 웃돌고 있습니다. 따라서, 수능 성적이 5.33인 경우 경영정보학과에 합격할 확률이 매우 높습니다.
+하지만 정시 모집의 경우 여러 요인이 고려되므로 완벽히 확실한 것은 아닙니다. 다른 평가 항목들(면접, 자기소개서 등)도 중요한 역할을 합니다. 그러나 수능 성적만으로 볼 때 합격 가능성이 매우 높다고 판단됩니다.
+결론적으로, 5.33의 수능 성적은 경영정보학과 일반학생전형에 충분히 합격할 수 있는 수준입니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 포함하고 있지만, 전체적인 맥락과 관련된 정보가 부족하고, 잘못된 해석이 포함되어 있습니다. 예를 들어, "你的成绩是否满足该专业的最低要求？"라는 질문은 원문에서 제공된 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일관성이 부족합니다. 원문은 3.33의 성적이 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 성적이 평균보다 낮다고 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 일부 관련 정보를 포함하고 있지만, 원문에서 제시된 주요 포인트와는 다소 동떨어져 있습니다. 원문은 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 질문을 제기하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적인 논리적 흐름이 부족합니다. 원문과의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 부분이 많습니다. 특히 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제시된 질문과는 다른 방향으로 진행되고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 원문과의 관련성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4489213461725123</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 江原大学2024年生物应用工程学部（多军）的录取标准是什么？
+2. 你的成绩是否满足该专业的最低要求？
+根据提供的表格信息，我们可以进行以下分析：
+1. **招生人数和报名情况**：
+   - 生物应用工程学部：101人
+   - 报名人数：238人
+   - 竞争比为2.40
+2. **最终注册者的情况**：
+   - 国语 + 数学 + 探讨（2个）（含加分）标准转换分数总和平均值：427.50
+   - 英语等级平均值：3.82
+   - 4个科目等级平均值：4.74
+   - 4个科目（含加分）标准转换分数总和平均值：427.50
+从这些数据来看，生物应用工程学部的竞争非常激烈。最终注册者的成绩普遍较高。
+3. **你的成绩**：
+   - 成绩为3.33，在英语等级方面略低于最终注册者平均水平（3.82）。
+   - 但你没有提供国语、数学和探讨科目的具体分数，这些科目可能对录取也有重要影响。
+综上所述，虽然你的英语等级略低，但如果你在其他科目上有较高的成绩，并且整体表现优秀，仍然有可能被录取。建议详细查看该专业的具体录取标准，并参考最终注册者的平均成绩来判断自己的竞争力。如果有疑问，可以咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 수능 최저 기준이 없다고 언급하고 있지만, 원문에서는 방사선학과의 평균 등급이 3.82로, 현재 정시 등급이 4.4인 경우 합격 가능성이 낮다고 명시하고 있습니다. 또한, 모집인원과 경쟁률에 대한 정보는 원문에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 합격 가능성이 낮다고 명시했으나, 생성된 응답에서는 성적이 방사선학과의 수능 최저 기준을 충족한다고 주장하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 추가 정보를 제공하지만, 원문에서 제시된 핵심 정보와는 다소 동떨어져 있습니다. 원문에서의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 방사선학과의 수능 최저 기준에 대한 언급이 원문과 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있습니다. 방사선학과의 수능 최저 기준이 없다는 주장은 원문과 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실적 정확성도 떨어지며, 관련성도 낮습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족합니다. 특히, 합격 가능성에 대한 해석이 원문과 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6090869499387381</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동일한 상황을 고려해보겠습니다.
+방사선학과는 다음과 같은 특징을 가지고 있습니다:
+1. 모집인원: 5명
+2. 경쟁률이 매우 높습니다 (7.20)
+3. 수능 최저기준 없음
+당신의 성적(국어, 수학, 영어 등급 평균 4.4)은 방사선학과의 수능 최저 기준을 충족시키는 편입니다.
+방사선학과의 수능 반영 방법은 다음과 같습니다:
+- 국어: 표준점수
+- 수학: 표준점수 + 가산점 (미적분 또는 기하 응시자)
+- 영어: 등급 점수
+당신이 방사선학과에 지원하기 위해서는 다음과 같은 절차를 따르셔야 합니다:
+1. 성적을 잘 유지하고, 수능까지 꾸준히 준비해야 합니다.
+2. 방사선학과의 수능 최저 기준을 충족하는 것이 중요합니다 (현재로서는 충족 가능).
+3. 학생부와 면접 등 다른 평가 요소도 잘 준비해야 합니다.
+결론적으로, 현재 성적만으로는 확실하게 합격할 수 있는 보장은 없습니다. 하지만 꾸준히 성적을 유지하고 기타 평가 요소를 잘 준비한다면 가능성이 있습니다. 
+추천 사항:
+- 수능까지 남은 기간 동안 꾸준히 공부하세요.
+- 방사선학과의 학과 특성에 맞는 활동이나 경험을 쌓으세요.
+- 면접 준비도 철저하게 하세요.
+이렇게 노력한다면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 수능 최저 합격 기준이 2.66이라고 언급하고 있지만, 원본 텍스트에서는 그러한 정보가 제공되지 않았습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에 포함되어 있지 않아 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 경쟁률과 같은 추가 정보를 제공하여 일관성이 떨어질 수 있습니다. 원본 텍스트는 단순히 성적에 대한 가능성을 언급하고 있으므로, 생성된 응답의 추가 정보는 일관성을 해칠 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과의 입시에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트에서 다루지 않은 세부 사항이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 정보 중 일부는 원본 텍스트에 명시되지 않은 내용이므로 정확성에 의문이 있습니다. 특히 경쟁률과 같은 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 잘 작성되었지만, 사실성과 일관성에서 약간의 문제가 있어 완벽한 점수를 주기에는 부족합니다. 그러나 유용한 정보와 높은 유창성을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 잘 전달하고 있지만, 추가된 정보가 원본 텍스트와의 일관성을 해칠 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6588085868309361</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 입시에서 방사선학과의 수능 최저 합격 기준이 2.66입니다. 지원자의 성적을 평가할 때, 2.66이라는 점수는 다음과 같은 의미를 가집니다:
+1. **최저합격선**: 이 점수는 해당 학과의 정원 내 최소 수능 점수 기준입니다.
+2. **경쟁률**: 방사선학과의 경쟁률이 7.20이라는 것을 볼 때, 2.66은 상대적으로 낮은 점수로 보입니다. 이는 많은 지원자가 이 학과에 지원할 가능성이 높다는 의미입니다.
+3. **안전한 범위**: 하지만 2.66은 최저합격선이므로, 이 점수를 넘으면 합격 가능성은 있습니다. 그러나 경쟁률이 높아서 다른 지원자들 중에서도 상대적으로 낮은 점수로 합격하기는 어렵습니다.
+4. **위험성**: 2.66이라는 점수는 위험이 있는 수준일 수 있습니다. 이 점수를 넘지 못하면 불합격할 가능성이 높아집니다. 그러나 최저합격선을 넘었다면 합격 가능성은 있으므로, 다른 평가 요소들을 고려해야 합니다.
+5. **추천**: 
+   - **준비**: 수능 공부를 더 열심히 해서 최대한 높은 점수를 받는 것이 좋습니다.
+   - **다양성**: 여러 학과에 지원하여 안전한 학과도 포함시켜 두는 것이 좋습니다.
+결론적으로, 2.66이라는 점수는 위험할 수 있지만, 최저합격선을 넘은 만큼 합격 가능성은 있습니다. 그러나 더 높은 점수를 받기 위해 노력하는 것이 현명한 선택일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 3.66이라는 점수를 낮게 평가하고 있으며, 경찰행정학과의 평균 성적에 대한 정보가 잘못 해석되었습니다. 원본 텍스트에서는 3.66이 평균보다 높은 성적이라고 언급하고 있지만, 생성된 응답은 이를 반박하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 3.66이 평균보다 높은 성적이라고 했으나, 생성된 응답은 이를 낮은 점수로 간주하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경찰행정학과의 입학 가능성에 대한 여러 고려사항을 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 다르게 해석되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 일관성이 떨어져서 전체적인 일관성은 낮아질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 3.66이 평균보다 높은 성적이라는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원본 텍스트와의 일관성이 부족하고, 사실성 및 정확성에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.6717689462770172</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66이라는 국어 점수는 상당히 낮은 점수입니다. 경찰행정학과의 경우 일반적으로 성적이 높은 편이므로, 이 점수로는 경쟁력을 갖추기 어렵다고 볼 수 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 경찰행정학과의 경쟁률이 매우 높습니다. 2024년도 최초합격자 표를 보면, 이전 학년도에는 평균 국어 성적이 3.88에서 5.81까지 다양하게 나왔으며, 지원 인원이 많아 경쟁률이 높았습니다.
+2. **성적**: 3.66이라는 점수는 상대적으로 낮은 편입니다. 이전 합격자들의 성적을 보면 4.00 이상의 국어 성적이 더 많이 나왔습니다.
+3. **전형 요소**: 경찰행정학과는 주로 수능성적이 반영되는 전형이므로, 다른 요인들이 크게 작용하기 어렵습니다.
+하지만 모든 것이 절대적인 것은 아닙니다. 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추천서 및 자기소개서**: 추천서와 자기소개서에서 자신의 장점과 특별한 경험을 강조하여 합격 가능성 높이기.
+2. **면접 준비**: 면접에서도 자신감 있게 자신의 능력과 열정을 표현하며, 경찰에 대한 진심 어린 관심을 보여줄 수 있습니다.
+3. **추가 지원**: 다른 전형이나 대학들을 추가로 지원하여 폭넓게 입학 기회를 확보하는 것도 방법입니다.
+결론적으로 3.66이라는 점수로는 경쟁력을 갖추기 어렵다고 판단되지만, 최선을 다해 준비한다면 작은 가능성은 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 확률이 달라질 수 있다고 명시하고 있습니다. 따라서, 원문에서 제공하는 정보와는 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 특정 학과에 대한 정보 없이 일반적인 합격 가능성에 대한 요인들을 나열하고 있습니다. 이는 원문과의 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성에 대한 다양한 요인들을 제시하고 있어 관련성이 높지만, 원문에서 제공하는 특정 학과에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인들이 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 확률에 대한 일반적인 정보를 제공하지만, 원문에서 제시한 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 원문과의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 합격 가능성에 대한 다양한 요인들을 잘 설명하고 있습니다. 그러나 원문과의 맥락이 다소 어긋납니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5475183600841599</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불확실하기 때문에, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재 경쟁률이 매우 높기 때문에, 예비 순위가 낮더라도 최종 합격자가 충원될 가능성이 있습니다.
+2. **모집 인원과 지원자 수**: 모집 인원보다 많은 지원자가 있을 경우, 충원 과정에서 추가로 합격자가 선발될 수 있습니다.
+3. **개인 성적 및 경쟁력**: 개인의 성적이 높다면, 충원 과정에서도 유리할 수 있습니다.
+4. **기타 요인**: 면접이나 서류 평가 등에서 우수한 점수를 받을 경우, 합격 가능성은 조금 더 높아질 수 있습니다.
+5. **결원 발생**: 다른 지원자가 포기하거나 불이익으로 인해 합격하지 못하는 경우, 예비 순위가 상승하여 합격할 가능성이 생깁니다.
+6. **대학의 정책**: 일부 대학에서는 충원 과정에서 특정 조건을 만족한 지원자를 우선적으로 선발하기도 합니다.
+결론적으로, 현재 위치에서 합격 확률은 낮지만, 모든 가능성은 열려 있습니다. 최선을 다해 준비하고, 가능한 한 많은 정보를 수집하여 자신의 경쟁력을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재하지 않는다는 사실을 무시하고 있으며, 잘못된 성적 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급이 있으며, 이는 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 법경찰행정학부에 대한 정보를 제공하고 있지만, 원본 텍스트의 주제와는 관련이 적습니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7315996362359577</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 고려해야 합니다:
+1. **전형 유형**: 이 학과는 주로 '나군' 수능(일반학생전형)으로 모집됩니다.
+2. **성적 평균**: 
+   - 2023년 동의대학교 법경찰행정학부 정시 최초합격자 표를 보면:
+     - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 합산 점수: 약 145~150점
+     - 이는 대략적인 안정권 점수입니다.
+3. **문 닫고 들어가기**: 
+   - 2023년 최종합격자 평균 성적은 약 145~150점 사이였습니다.
+   - 이 점수를 기준으로 2024년에도 비슷한 수준의 성적이 필요할 것으로 예상됩니다.
+따라서:
+- **안정권**: 약 145~150점
+- **문 닫고 들어가기**: 약 150~160점
+이러한 점수를 받으면 안정권에 들 수 있으며, 문이 닫고 들어갈 수 있을 것입니다. 실제 성적은 모집인원과 지원자의 경쟁률 등 다양한 요소에 따라 변동될 수 있으므로 정확한 예측을 하기 어렵습니다.
+추천: 
+- 2024년 동의대학교 법경찰행정학부 정시 모집요강 및 홈페이지를 통해 최신 정보를 확인하세요.
+- 전형별 평균 성적과 경쟁률 등을 고려하여 지원 계획을 세우세요.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘못 해석하고 있습니다. 원본 텍스트는 아동학과에 대한 정보를 제공하고 있으며, 영어 등급 평균과 수능 4개 영역 등급 평균을 명시하고 있습니다. 그러나 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 관련된 데이터가 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 아동학과에 대한 정보를 제공하는 반면, 생성된 응답은 보육가정상담학과에 대한 정보를 다루고 있어 서로 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제가 다르기 때문에 완전히 관련성이 높다고 보기는 어렵습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제가 다르기 때문에 흐름이 자연스럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 데이터와 생성된 응답의 데이터가 서로 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 원본 텍스트와의 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 원본 텍스트의 질문에 대한 명확한 이해를 제공하지 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4636285640877056</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标大学和专业**：东国大学保育家庭咨询学部（假设这是您指的“东义大学保育加定咨询学部”）的具体录取标准。
+2. **您的成绩**：您的数学能力测试（수능）等值转换分数为5.33。
+3. **历史数据和趋势**：从提供的表格中，我们可以查看保育家庭咨询学部的相关信息。
+根据您提供的表格内容：
+- 保育家庭咨询学部在2024年的招生计划是6人，实际报名人数为17人，竞争比为2.83。
+- 最终录取的考生平均国语+数学+两门选修科目的标准转换分数总和为309.71（单位：标准化分），英语等级平均值为3.71。
+从这些数据来看：
+1. **竞争情况**：虽然您的数学能力测试等值转换分数是5.33，但这个成绩在实际录取中可能需要结合其他科目综合考虑。保育家庭咨询学部的竞争比相对较低（2.83），这意味着录取分数线不会特别高。
+2. **平均分和标准差**：
+   - 国语+数学+两门选修科目的标准转换分数总和的平均值为309.71，标准差为9.08。
+   - 英语等级的平均值为3.71。
+您的成绩在这些方面看起来是不错的。特别是如果您的其他科目也表现良好，并且英语等级较高的话，那么您有可能被录取。
+**建议**：
+- 检查是否有其他附加条件或要求（如面试、推荐信等）。
+- 考虑是否还有其他备选专业或大学。
+- 保持积极的心态，因为即使这次没有成功，也可以通过其他途径申请。
+综上所述，您的成绩在保育家庭咨询学部的录取标准范围内，有一定的机会被录取。建议您进一步了解该专业的具体要求，并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 충원 합격자 발표와 예비 번호에 대한 정보가 정확하게 전달되고 있습니다. 그러나 일부 세부 사항이 생략되어 있어 완전한 정확성에는 미치지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 예비 번호와 등록 여부에 대한 설명이 잘 연결되어 있습니다. 다만, 약간의 중복된 정보가 있어 일관성 점수가 완벽하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름이 있으며, 각 포인트가 잘 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항이 누락되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 몇 가지 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7388749294870899</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 예비 순위를 기준으로 합격 여부가 결정됩니다. 예비 12번을 받은 경우, 이전에 이미 합격한 학생들이 포기하거나 등록하지 않으면 합격할 가능성이 있습니다.
+주요 점들은 다음과 같습니다:
+1. **3차 충원합격자 발표**: 이때 합격 여부는 예비 순위를 기준으로 결정됩니다.
+2. **등록 여부 확인**: 이미 합격한 학생들이 등록하지 않으면, 그 자리가 비어 합격자가 추가로 선발될 수 있습니다.
+3. **결원 발생 시**: 결원이 발생하면 예비 순위에 따라 충원합격자 선발이 이루어집니다.
+따라서:
+- 만약 이미 합격한 학생들이 등록하지 않으면, 예비 12번으로 있는 자리가 비어 합격할 가능성이 있습니다.
+- 반대로, 이미 합격한 학생들이 모두 등록하면, 당신은 합격하지 않을 것입니다.
+따라서 가장 중요한 것은:
+- **등록 여부 확인**: 이미 합격한 학생들의 등록 여부를 확인해야 합니다. 이 정보는 입학관리 홈페이지에서 확인할 수 있습니다.
+- **결원 발생 시**: 만약 결원이 발생하면, 당신의 예비 순위에 따라 합격할 가능성이 있습니다.
+따라서, 가장 확실한 방법은:
+1. **입학관리 홈페이지를 통해 등록 여부 확인**.
+2. **결원 발생 시**: 예비 12번으로 있는 자리가 비어 합격할 수 있다는 점을 기억해 두세요.
+이 정보를 바탕으로 최종 결정을 내릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높다고 언급하고 있지만, 유아교육학과의 평균 성적이 4.18이라는 사실을 간과하고 있습니다. 따라서, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 유아교육학과에 대한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제시된 4.75 성적이 유아교육학과에 지원하기 어려운 이유와는 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 요건을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 성적에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 여러 요소를 체계적으로 나열하고 있지만, 원본 텍스트의 결론과는 다소 다르게 전개되어 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제시된 정보는 일부 정확하지만, 유아교육학과에 대한 지원 가능성에 대한 결론이 원본 텍스트와 상충합니다. 따라서 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 고르게 떨어지며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 대체로 적절하지만, 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6847608198289523</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교 학생들이 수능에서 얻을 수 있는 평균 점수보다 훨씬 높습니다. 그러나 유아교육학과에 입학하기 위해서는 수능 성적뿐만 아니라 다른 요소들도 중요합니다.
+1. **유아교육학과의 모집요강 확인**: 각 대학별로 유아교육학과의 모집요강을 꼭 확인해야 합니다. 일부 대학에서는 특정 학생부 교과성적이나 면접 성적이 중요한 역할을 할 수 있습니다.
+2. **수능 점수**: 4.75라는 점수는 매우 높습니다. 대부분의 유아교육학과에서 이 정도 점수로는 충분히 합격 가능성이 높습니다. 그러나 최종 합격 여부는 모집인원, 지원자들의 성적 분포 등에 따라 달라질 수 있습니다.
+3. **학생부 교과성적**: 유아교육학과에서는 종종 학생부 교과성적이 중요하게 평가됩니다. 특히 사회·과학 탐구 영역에서 높은 점수를 받는 것이 좋습니다.
+4. **면접 및 서류평가**: 일부 대학에서는 면접이나 서류평가에서도 중요한 역할을 합니다. 유아교육에 대한 열정과 적합성, 교육적 경험 등을 잘 보여줄 수 있어야 합니다.
+5. **추천서나 특별한 경력**: 특정 학교에서 추천서나 특별한 경력을 가진 지원자가 있을 경우, 이 점이 유리하게 작용할 수도 있습니다.
+결론적으로 4.75라는 수능 성적은 매우 높으므로 유아교육학과에 입학하기는 어렵지 않을 것입니다. 그러나 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 모집요강을 꼭 확인하시고, 필요하다면 입학사정관과 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 4.16의 환산 등급이 좋은 점수라는 점과 보육가정상담학과에 지원 가능하다는 점을 언급하고 있습니다. 그러나 합격 여부에 대한 여러 요소를 추가로 언급하면서 원본 텍스트의 구체적인 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)를 명시하지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 보육가정상담학과의 합격 가능성에 대해 설명하고 있습니다. 그러나 추가적인 요소들(모집인원, 경쟁자 성적 등)을 언급하면서 원본 텍스트의 단순한 합격 가능성에 대한 설명과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5228779726060687</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에 대해 다음과 같이 답변 드리겠습니다:
+1. 현재 환산등급 4.16은 상당히 좋은 점수입니다.
+2. 보육가정상담학과는 일반학생전형으로 지원 가능합니다.
+3. 그러나 합격 여부는 여러 요소에 따라 결정됩니다:
+   - 모집인원
+   - 다른 지원자의 성적 분포
+   - 수능 최저기준 (현재 없지만 변경될 수 있음)
+   - 서류 및 면접 평가 결과 등
+4. 4.16등급은 대부분의 일반학생전형에서 좋은 점수이지만, 경쟁률과 모집인원에 따라 달라질 수 있습니다.
+5. 추합까지 생각한다면, 최소한 3등급 이상의 성적을 갖춘 지원자들과 경쟁해야 합니다.
+6. 동의대학교는 다양한 전형을 운영하므로, 학생부종합 등 다른 전형도 고려해보시는 것이 좋습니다.
+결론적으로, 현재 점수만으로는 확실한 합격 여부를 예측하기 어렵습니다. 최신 정보 확인과 추가 지원 전략 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 "소프트웨어융합학과는 정시로 지원할 수 없습니다."라고 명확히 언급하고 있지만, 생성된 응답에서는 정시에 들어갈 가능성이 있다고 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 정시 지원이 불가능하다고 명시하고 있는데, 생성된 응답은 정시에 들어갈 가능성이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보와 등급에 대한 내용을 포함하고 있지만, 원문 질문에 대한 직접적인 답변이 부족합니다. 원문에서 요구하는 정보와는 다소 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원문 질문에 대한 답변이 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 정시 지원이 불가능하다는 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문 질문에 대한 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4406042896401016</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 기반으로 답변드리겠습니다.
+- **소프트웨어융합학과의 모집 단위와 정원**: 
+  - 소프트웨어융합학과는 ICT융합공과대학에 속해 있습니다.
+  - 해당 학과의 정원은 7(컴퓨터공학과) + 30(소프트웨어공학부) + 7(게임공학과) = 총 44명입니다.
+- **최종등록자 평균 등급**:
+  - 소프트웨어공학부의 경우, 2024년도 최종등록자의 영어 등급 평균은 3.77 등급입니다.
+  - 이는 대략적으로 115점 정도의 등급 점수를 의미합니다.
+- **최초합격자 평균 등급**:
+  - 소프트웨어공학부의 경우, 2024년도 최초합격자의 영어 등급 평균은 3.30 등급입니다.
+  - 이는 대략적으로 107점 정도의 등급 점수를 의미합니다.
+따라서, 소프트웨어융합학과로 정시에 들어갈 수 있는 가능성은 있습니다. 하지만 경쟁률이 높아 평균적으로 3.5등급 이상을 받아야 안전하게 합격할 가능성이 높습니다. 
+정확한 등급 요구는 매년 변동될 수 있으므로, 최신 정보를 확인하는 것이 좋습니다. 또한, 다른 전형 요소(수능 점수, 실기 성적 등)도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소스 텍스트의 주요 내용을 잘 반영하고 있으며, 면접과 서류 평가의 중요성을 강조하고 있습니다. 그러나 일부 세부 사항이 소스 텍스트에 명시된 내용과 완전히 일치하지 않거나 추가적인 정보가 포함되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 소스 텍스트와 전반적으로 일관성을 유지하고 있습니다. 면접과 서류 평가의 중요성을 언급하며, 서류 준비에 대한 추가 정보를 제공하고 있습니다. 다만, 일부 내용이 소스 텍스트와 약간의 차이가 있어 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다. 면접 점수와 서류 준비에 대한 정보가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 약간의 중복이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 일부 세부 사항이 소스 텍스트와 완전히 일치하지 않아 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 약간의 추가 정보가 포함되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장이 길어질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5571813845004941</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>학생님의 질문에 답변드리겠습니다.
+1. **면접 점수 vs 세특 내용**:
+   - 일반적으로, 면접과 서류 평가 모두 중요한 역할을 합니다.
+   - 면접에서는 지원자의 입담, 태도, 문제 해결 능력 등을 평가합니다.
+   - 서류 평가는 학업역량, 전공적합성 등 지원자가 제출한 서류를 통해 보여주는 내용을 평가합니다.
+2. **서류 준비**:
+   - **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 학교생활기록부, 창의적 체험활동 등이 중요합니다.
+   - **나군 수능(일반학생전형)**: 수능 성적이 주요하지만, 일부 모집단위에서는 실기고사 결과도 고려할 수 있습니다.
+   - **조기취업형계약학과**: 서류평가 영역에서 공동체역량, 학업역량, 전공적합성 등을 평가합니다.
+따라서, 면접 준비와 함께 세특 내용을 충분히 준비하는 것이 중요합니다. 특히 학교생활기록부는 매우 중요한 역할을 합니다. 
+추가적으로, 서류 제출 시에는 다음과 같은 점들을 주의해야 합니다:
+- 모든 서류는 원본을 제출하며, 필요시 공증이 필요할 수 있습니다.
+- 제출 기간과 장소를 확인하고 반드시 제출 여부를 확인해야 합니다.
+더 자세한 정보가 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 수능 최초합격자의 평균 성적에 대한 정보를 잘못 해석하고 있습니다. 원본 텍스트에서는 4.08의 성적이 평균보다 약간 높은 수준이라고 언급하고 있지만, 생성된 응답은 이를 부정확하게 해석하여 4.08이 부족하다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.08이 최초합격 가능성이 있다고 언급했으나, 생성된 응답은 이를 반박하는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하고 있지만, 질문의 핵심인 4.08 성적에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 4.08 성적이 부족하다고 잘못된 정보를 제공합니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답이 원본 텍스트와의 일관성, 정확성, 관련성에서 부족함을 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기에는 무리가 없지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5098160383606766</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 同意大学软件工程学部（Software Engineering Department）2024年招生计划中的录取标准。
+2. 您提供的成绩是否符合该专业的最低录取分数线。
+根据您提供的数据表，“软件工程学部”（Software Engineering Department）的相关信息如下：
+- **2024年招生人数**：30人
+- **2024年申请人数**：146人
+- **竞争比**：4.87
+从“国语 + 数学 + 探究(2个) (加分后) 标准转换分数总和 { 平均 / 标准差 }”这一列来看，软件工程学部的平均标准转换分为330.11，标准差为9.08。
+您提供的成绩是4.08。这个成绩看起来像是英语等级分（Grade Level），而不是标准转换分数总和。如果您的英语等级确实是4.08，那么这在大多数情况下可能不足以满足软件工程学部的录取要求。
+通常，软件工程学部会有一个较高的平均录取标准转换分数，并且竞争比也相对较高。根据提供的数据，该专业的平均标准转换分为330.11，而您的成绩为4.08，明显低于这个数值。
+因此，仅凭您提供的信息来看，您的英语等级分（4.08）可能不足以让您成为软件工程学部的录取者。建议您查看具体的招生简章或直接联系学校获取更详细的信息和确认。
+如果您有标准转换分数总和的具体数据，请提供更多信息以便进行准确评估。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 없다는 원문 내용을 무시하고, 수능 반영 영역 및 가산점에 대한 잘못된 정보를 제공하고 있습니다. 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 전혀 일치하지 않으며, 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원문은 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 과목과 점수 변환을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없으며, 주제와도 맞지 않습니다. 원문은 합격 등급 정보에 대한 질문이었으나, 생성된 응답은 수능 과목과 점수에 대한 설명으로 전환되어 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원문과의 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 맞지 않으며, 잘못된 정보를 포함하고 있습니다. 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 연결이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요구하는 의미와 맥락에 전혀 부합하지 않으며, 주제와도 맞지 않습니다. 의미적으로 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.4250250776805054</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关表格中的信息。根据您提供的数据内容，我们可以参考“수능 반영영역 및 가산점”表来确定是否可以将5等級视为平均分。
+从该表中可以看到：
+1. 对于소프트웨어융합학과（软件融合工程学部），其反应该科目为：
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%
+2. 英语科目的等級与分数转换如下：
+   - 1 等级：139 分
+   - 2 等级：131 分
+   - 3 等级：123 分
+   - 4 等级：115 分
+   - 5 等级：107 分
+   - 6 等级：99 分
+   - 7 等级：91 分
+   - 8 等级：83 分
+   - 9 等级：75 分
+如果将5等級转换为分数，大约是107分。这在25%的权重下，可以计算其对总成绩的影响。
+假设其他科目都保持平均等级（例如4等），那么：
+- 国语：115
+- 数学：115
+- 英语：107
+- 探索：115
+总分为 115 * 3 + 107 = 452 分。
+如果所有科目都保持平均等级，那么总分会更高。因此，5等級可以被视为一个合理的平均成绩，但具体是否足够取决于其他考生的成绩分布情况以及该专业的录取标准。
+综上所述，5等級是可以作为参考的平均分数，但在实际申请中还需要考虑其他因素和竞争情况。</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28의 성적이 신소재공학과의 평균 등급보다 높다고 언급하고 있지만, 생성된 응답은 입학 확률이 낮다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.28의 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답은 반대로 입학 확률이 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 긍정적인 판단을 반영하지 않고 부정적인 측면에 초점을 맞추고 있습니다. 그러나 여전히 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 상충으로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있어 정확성이 떨어집니다. 원본의 정보와 비교할 때, 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 부정적인 해석으로 인해 의미 전달이 적절하지 않습니다. 원본의 긍정적인 맥락을 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5775523404147582</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 확률은 상당히 낮습니다.
+이유는 다음과 같습니다:
+1. 모집 인원: 신소재공학과는 56명을 모집하고 있습니다.
+2. 지원 인원: 81명이 지원했습니다.
+3. 경쟁률: 약 1.45대 1로, 비교적 낮은 편입니다.
+하지만, 실제 입학 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+- 성적이 4.28인 경우, 표준 변환 점수 합이 약 378.15점으로 보입니다.
+- 이 점수가 모집 단위의 평균 점수보다 낮습니다.
+- 경쟁률이 높지 않지만, 지원자가 많아서도 입학하기 어렵습니다.
+결론적으로:
+1. 매우 희박한 확률로만 가능합니다.
+2. 다른 대학이나 전공을 고려해보는 것이 좋을 수 있습니다.
+3. 추가적인 준비나 재수를 고려해볼 수도 있습니다.
+정시 성적이 4.28인 경우, 동의대학교 신소재공학과에 입학하기 위해서는 더 높은 점수를 얻거나 다른 전략을 사용해야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "자기소개서 작성은 필수 항목이 아닙니다"라고 언급하고 있지만, 마지막 문장에서 "자기소개서 작성은 필요하지만"이라고 모순된 내용을 포함하고 있습니다. 이는 사실과 일치하지 않으며, 응답의 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 설명: 응답 내에서 자기소개서가 필요 없다고 하면서도, 마지막에 자기소개서 작성이 필요하다고 언급하는 부분이 있어 일관성이 결여되어 있습니다. 이러한 모순은 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보와 요구사항을 잘 설명하고 있으며, 주제와 관련된 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 전반적으로 문장이 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 대체로 잘 짜여져 있지만, 자기소개서에 대한 모순된 정보로 인해 논리적 흐름이 약간 깨졌습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답의 내용 중 자기소개서가 필요하다는 부분이 사실과 다르기 때문에 정확성 점수가 낮습니다. 수능 일반학생전형에서는 자기소개서가 필요 없다는 점이 명확히 언급되어야 합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다. 따라서 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 자기소개서에 대한 모순된 정보로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 자기소개서에 대한 모순된 정보로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 대부분의 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.662320035154925</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 일반학생전형에서는 자기소개서 작성은 필수 항목이 아닙니다. 
+주요 절차와 요구사항을 요약하면:
+1. 자기소개서는 필요하지 않습니다.
+2. 제출 서류:
+   - 고교 졸업(예정)자: 제출서류 없음 (온라인 학생부 제공 동의자만 온라인으로 제공 받음)
+   - 검정고시 출신자 및 외국고교 졸업(예정)자: 제출서류 없음
+3. 수능 성적과 탐구 영역 성적이 주요 평가 요소입니다.
+4. 동점자 처리 시 수능 성적 순으로 선발합니다.
+따라서 자기소개서 작성은 필요하지만, 다른 서류 준비와 수능 성적 준비에 집중하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 평가하기 위해 여러 요소를 고려해야 한다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 일부 세부 사항이 원본 텍스트에 명시된 내용과 다소 차이가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용과 일관되며, 추가 모집에 대한 정보와 합격 가능성에 대한 논의가 잘 연결되어 있습니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 따라서 일관성이 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 특정 전형의 세부 사항이 원본 텍스트와 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6060991555861295</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 수준입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전체 모집인원과 지원자 수**: 각 단과대학 및 전형별로 정원이 다르므로, 전체 지원자 수와 모집 인원을 확인해야 합니다.
+2. **경쟁률**: 동의대학교의 경쟁률은 매우 높습니다. 특히 인문사회과학대학이나 상경대학 등에서 4.5를 받더라도 경쟁률이 높아 합격 확률은 낮을 수 있습니다.
+3. **전형별 특성**: 
+   - **가군 (일반학생전형)**: 수능만 반영되므로, 고득점을 받았다면 좋은 기회입니다.
+   - **나군 (실기/실적 전형)**: 실기와 수능을 함께 반영하므로, 실력도 중요합니다.
+   - **다군 (특정 전형)**: 각각 다른 요소를 반영하므로, 해당 전형의 특성을 고려해야 합니다.
+4. **추가모집**: 추가모집은 일반적으로 정원 내 합격자 외에 모집 인원을 확보하기 위한 제2의 기회입니다. 하지만 이 역시 경쟁률이 높아 4.5를 받더라도 확실한 합격 보장은 아닙니다.
+5. **기타 요인**: 
+   - 학생부 교과성적
+   - 면접 성적 (일부 전형에서)
+   - 실기 성적 (실기/실적 전형)
+6. **전형별 모집인원**: 추가모집의 경우, 정원 내 합격자 외에 몇 명을 더 모집할지 공고에 명시되어 있습니다.
+따라서 4.5라는 점수만으로는 확실한 결론을 내리기는 어렵습니다. 동의대학교의 공식 추가모집 공고를 확인하고, 해당 전형별로 어떤 요소들이 반영되는지를 파악하는 것이 중요합니다. 또한, 다른 지원자들과의 경쟁률을 고려하여 합격 가능성을 판단해야 합니다.
+추가 정보:
+- **수능 최저기준**: 일부 전형에서는 수능 최저 기준이 설정되어 있을 수 있으므로 이를 확인하세요.
+- **전형별 특징**: 각 전형의 특성을 잘 이해하고, 자신의 강점을 살릴 수 있는 전형을 선택하는 것이 중요합니다.
+결론적으로 4.5라는 점수는 좋은 성적입니다만, 추가모집에 합격하기 위해서는 여러 요소를 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 합격 가능성에 대한 추론을 제공합니다. 그러나 일부 수치(예: 영어 등급 평균 4.33)는 원본 텍스트와 일치하지 않으며, 이는 정확성에 영향을 미칩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반복하지만, 새로운 수치와 해석을 추가하여 일관성이 떨어집니다. 예를 들어, 영어 등급 평균이 4.33으로 언급되었으나 원본 텍스트에서는 5.06으로 명시되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 정시 합격 기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 수능 성적 분석과 경쟁률에 대한 정보는 질문의 맥락에 잘 맞습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 중복되어 나타나면서 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하지만, 새로운 수치와 해석이 포함되어 있어 정확성에 문제가 있습니다. 특히, 영어 등급 평균이 잘못된 정보로 나타났습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 수치의 불일치로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.7249356855942105</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 합격 기준 등급을 직접적으로 확인할 수 없습니다. 하지만, 일반적인 수능 성적 분석을 통해 추론해볼 수 있습니다.
+신소재공학과는 공과대학에 속하며, 모집인원이 32명으로 중간 정도의 규모입니다. 지원 인원도 81명으로 꽤 많은 편이며 경쟁률은 2.54:1로 보통 수준입니다.
+수능 성적 분석 표에서 신소재공학과와 관련된 정보를 찾아보면, 정원 내 모집인원이 32명이고 지원 인원이 81명으로 경쟁률이 약 2.54:1이라는 것을 확인할 수 있습니다.
+국어 + 수학 + 탐구(2개)의 표준 변환 점수 합은 평균 286.97점이고, 영어 등급은 평균 4.33등급입니다. 이는 대체로 중간에서 상위권의 성적을 보여줍니다.
+따라서 신소재공학과에 지원하려면 다음과 같은 수준의 점수를 얻어야 할 것으로 추정됩니다:
+1. 국어, 수학, 탐구 등급 평균 4.0점 이상
+2. 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 300점 이상
+이는 대략적으로 B등급을 받은 수준의 성적이 필요할 것으로 보입니다.
+정확한 등급 기준은 동의대학교 입학처에서 공식 발표하는 정보를 참고해야 합니다. 따라서 최종적인 합격 가능성 확인을 위해서는 동의대학교 입학 홈페이지나 입학처에 직접 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수(378.15점)와 귀하의 점수(447점)와 관련된 정보를 포함하고 있지만, "작년보다 약간 높아졌다는 가능성"이라는 주장은 명확한 사실이 아니며, 원본 텍스트의 내용을 왜곡할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, "작년보다 약간 높아졌다는 가능성"이라는 주장은 원본 텍스트의 확정적인 결론과 상충할 수 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 고려사항을 제시함으로써 주제를 약간 벗어나는 경향이 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 고려사항이 명확하게 나열되어 있습니다. 그러나 결론 부분에서 약간의 모호함이 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, "작년보다 약간 높아졌다는 가능성"이라는 주장은 정확한 정보가 아닙니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 전반적인 품질이 높지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6370624008506837</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년보다 약간 높아졌다는 가능성은 있습니다. 하지만 이는 여러 요인에 따라 결정되므로 확실한 보장은 아닙니다.
+주요 고려사항:
+1. 모집정원 및 지원자 수: 모집정원이 늘어나거나 지원자가 줄면 평균 점수가 변동될 수 있습니다.
+2. 학생들의 성적 분포: 작년보다 더 높은 점수를 받은 학생들이 많아졌다면 평균이 상승할 수 있습니다.
+3. 전형별 차이: 다른 전형에서의 성적이 반영되었을 수도 있습니다.
+4. 입학사정관 심사 결과: 서류 및 면접 평가 등에서 높은 점수를 받은 지원자가 많았다면 이도 영향을 줄 수 있습니다.
+5. 교육 정책 변화: 최근의 교육 정책이나 교육환경 변화로 인해 학생들의 성적이 변동될 수 있습니다.
+6. 코로나19 등 예외적 상황: 이전년도와 비교했을 때 특별한 사건이 발생하여 평균 점수가 달라질 수 있습니다.
+결론적으로, 작년보다 약간 높아진다는 것은 가능하지만 확실하게 예측하기는 어렵습니다. 최종적인 결과는 입학사정관 심사와 함께 발표되는 정시 합격자 명단을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학부의 평균 성적을 잘못 해석하고 있으며, 4.3등급대의 성적이 합격 가능성이 낮다고 주장하지만, 원본 텍스트에서는 4.1~4.2등급대의 성적이 평균보다 높은 편이라고 언급하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.1~4.2등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 했으나, 생성된 응답에서는 4.3등급대의 성적이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부에 대한 합격 가능성에 대한 질문에 답하고 있으며, 관련된 정보와 조언을 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부정확하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 데이터와 사실을 잘못 해석하고 있으며, 특히 평균 성적에 대한 정보가 부정확합니다. 이는 합격 가능성에 대한 잘못된 결론으로 이어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계와 일관성에서 큰 오류가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6059547417343347</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학과(56명 모집)에 합격할 확률이 상당히 낮습니다. 현재 제공된 데이터를 바탕으로 분석해보겠습니다:
+1. **신소재공학과 모집인원**: 56명
+2. **최종등록자 성적 평균**: 4.70 등급 (평균이 상당히 높습니다)
+3. **성적 편차**: 0.88 등급
+현재의 성적이 4.1~4.2라면, 이는 모집인원 대비 매우 낮은 수준입니다. 대부분의 합격자들은 4.5 이상의 등급을 보유하고 있습니다.
+**추천 사항:**
+1. **성적 향상**: 현재 성적이 조금 더 높아질 가능성 있는 과목이나 부분에 집중하여 성적을 향상시키는 것이 중요합니다.
+2. **다양한 전형 시도**: 신소재공학과 외 다른 모집단위나 전형(예: 실기/실적, 특성화고동일계전형 등)을 고려해보세요.
+3. **추천서 및 자기소개서 작성**: 성적이 조금 부족하다면 추천서와 자기소개서를 잘 준비하여 지원자의 전체적인 역량을 보완하는 것이 도움이 될 수 있습니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 다른 전형이나 방법도 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 성적 정보와 관련된 모든 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7485264919182861</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최종등록자의 성적 정보를 확인해보겠습니다.
+[표 내용]
+```
+단과대학 / 2024학년도 모집단위 / 모집 인원 / 지원 인원 / 경쟁률 / 충원 합격 (후보순위) / 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 } / 영어 등급 { 평균 / 표준 편차 } / 수능 4개 영역 등급 { 평균 / 표준 편차 } / 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+ICT융합공과대학 / 인공지능학과 / 15 / 24 / 1.60 / 5 / { 301.87 / 12.38 } / { 4.13 / 0.71 } / { 4.98 / 0.25 } / { 415.80 / 10.49 }
+```
+이 정보를 바탕으로, 인공지능학과의 최종등록자들의 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 301.87, 표준 편차 12.38
+- 영어 등급: 평균 4.13, 표준 편차 0.71
+- 수능 4개 영역 등급: 평균 4.98, 표준 편차 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 415.80, 표준 편차 10.49
+이 정보를 참고하여 자신의 성적과 경쟁력을 비교해보시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성에 대한 정보를 제공하고 있지만, 구체적인 학과와 성적 기준에 대한 정보가 부족하여 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용과 일부분 일치하지만, 구체적인 학과와 성적 기준에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 응답은 주제와 관련이 있지만, 원본 텍스트에서 제공된 구체적인 학과 정보와 성적 기준을 다루지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 3
+   - 응답은 5.27의 성적에 대한 일반적인 정보를 제공하지만, 구체적인 학과와 성적 기준에 대한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이지만, 구체적인 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬우며, 필요한 정보를 잘 전달하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6731349776893309</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 표준점수로 보이는데, 동의대학교의 정시 모집에서는 수능성적이 중요한 평가 요소 중 하나입니다. 그러나 정확히 어떤 전형에서 이 성적으로 합격할 수 있는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위**: 특정 학과나 전공의 모집인원과 지원자 수를 알아야 합니다.
+2. **전형 유형**: 가군, 나군, 다군 중 어느 군인지 확인해야 합니다.
+3. **수능 최저기준**: 해당 모집단위의 수능 최저기준을 확인해야 합니다.
+4. **학생부 등 다른 평가 요소**: 일부 전형에서는 학생부나 면접 등의 성적도 고려하기 때문에, 이 부분도 함께 검토해야 합니다.
+5. **경쟁률**: 현재의 경쟁률과 지원자 수를 파악하면 더 정확한 판단이 가능합니다.
+만약 특정 모집단위와 전형을 알려주시면, 그에 따른 합격 가능성에 대해 좀 더 구체적인 답변을 드릴 수 있습니다. 또한, 동의대학교의 공식 홈페이지나 입학처에 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.
+만약 특정 모집단위와 전형이 알려지지 않는다면, 일반적으로 5.27이라는 점수는 중간 정도의 성적으로 볼 수 있습니다. 따라서 경쟁률과 지원자 수 등을 고려하면 어느정도 합격 가능성이 있는 것으로 보입니다.
+추합 가능성에 대한 구체적인 답변을 드리기 위해서는 더 많은 정보가 필요합니다. 위에서 언급한 것들을 알려주시면, 좀 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 4.2라는 성적이 합격 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나 일부 세부 사항은 원본 텍스트에 명시된 내용과 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 평균 성적에 대한 추가적인 세부 사항이 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 4.2가 평균보다 약간 낮다는 언급은 원본 텍스트의 긍정적인 해석과 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 경쟁률에 대한 설명이 원본 텍스트와 완전히 일치하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 정확성과 일관성이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5403952208028905</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 성적이 동의대학교 소프트웨어공학부에 충분히 경쟁력을 갖추고 있는 수준입니다. 하지만 정시 합격 여부는 여러 요소에 따라 달라질 수 있습니다:
+1. 모집단위별 지원 인원과 모집인원: 
+   - 2024년 소프트웨어공학부의 경우, 최초합격자는 30명을 모집했고 146명이 지원하여 4.87 대 1의 경쟁률을 보였습니다.
+   - 최종등록자도 145명이 지원하여 4.21 대 1의 경쟁률을 보였습니다.
+2. 평균 성적:
+   - 최초합격자의 경우, 국어+수학+탐구(2개) 표준변환점수 합은 317.87로, 7.35의 표준편차를 가지고 있습니다.
+   - 최종등록자도 비슷한 수준으로, 317.87와 7.35의 표준편차를 보였습니다.
+3. 경쟁률:
+   - 4.2는 평균보다 약간 낮은 수치이지만, 경쟁률이 높지 않은 모집단위에서는 충분히 합격 가능합니다.
+   - 특히 최종등록자 중에서 10% 정도만 선발되었던 경우도 있으므로, 꾸준한 준비와 노력으로 좋은 결과를 얻을 수 있습니다.
+4. 기타 요인:
+   - 지원자의 전반적인 성적 경향성
+   - 추가 면접 등 다른 평가 요소
+결론적으로 4.2의 성적은 충분히 합격 가능성이 있지만, 최종합격 여부는 모집단위별 지원자 수와 경쟁률에 따라 달라질 수 있습니다. 꾸준한 준비와 노력이 필요하며, 추가 면접 등 다른 평가 요소도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지 않고, 대신 여러 조건을 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 데이터와 합격 가능성에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제시된 합격 가능성에 대한 긍정적인 정보와 상충하는 조건들을 제시하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 지원 가능성에 대한 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 특히 합격 가능성에 대한 정보가 왜곡되어 있습니다. 원본 텍스트의 데이터와 결론을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있으며, 일부는 적절하지만 전반적으로는 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있는 내용이지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5213443278050131</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了确定是否可以申请, 我们需要考虑以下几个因素:
+1. 您的高考成绩(3.92)是否满足该专业的最低录取分数线。
+2. 您所学的专业是否属于" 화학环境工程部 "的招生范围。
+3. 您的高中学业水平考试成绩是否符合要求。
+4. 是否有其他特殊条件限制, 如某些专业对特定科目的要求等。
+根据您提供的信息:
+1. 从表中可以看到, 化学环境工程系(化学、环境、应用化学)属于 "多" 类型的一般学生招生计划。
+2. 表格显示该类别的录取方式为: {0 / 0 / 70 / 30 / 0 / 0} (即70%的比重来自学业水平考试成绩, 30%来自高考)。
+但是具体是否可以申请还需要:
+1. 查看该专业的最低录取分数线。
+2. 确认您的高中学业水平考试成绩是否达到要求(8门课中排名前12门中的4门)。
+3. 核实是否有其他限制条件。
+建议您:
+- 查看东国大学官网上的具体招生简章
+- 与学校招生办公室联系确认详细信息
+- 确认您的学业水平考试成绩是否符合要求
+这样可以更准确地判断您是否有资格申请该专业。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하고 있지만, 정시 성적 4.25를 직접 사용할 수 없다는 부분은 다소 모호하게 설명되어 있습니다. 원문에서는 4.25가 최초합격자의 평균보다 높다고 언급하고 있으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 정시 성적을 일반학생전형에 사용할 수 없다는 주장은 원문에서의 합격 가능성 언급과 상충됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 수능 일반학생전형에 대한 설명이 포함되어 있습니다. 그러나 원문에서 제시된 합격 가능성에 대한 정보가 누락되어 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원문에서 제시된 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 원문과의 일관성 및 정확성이 부족하여 다차원적으로 높은 품질을 평가하기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.64961962307895</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 화학환경공학과에 지원하시려면, 수능(일반학생전형)을 통해 지원할 수 있습니다. 하지만 정시모집과 수능(일반학생전형)은 다른 전형이므로, 정시 성적 4.25를 직접 사용하여 일반학생전형으로 지원하는 것은 불가능합니다.
+수능(일반학생전형)에서는 수능 점수와 교과 성적이 함께 반영되며, 각 모집단위별로 다른 비율로 반영됩니다. 따라서 화학환경공학과의 경우 다음과 같은 절차를 따르게 됩니다:
+1. **수능 점수**: 수능 점수는 학생부교과와 함께 반영되며, 각 과목별 표준점수와 등급을 활용합니다.
+2. **학생부 교과 성적**: 고등학교에서 이수한 교과 성적이 반영됩니다.
+화학환경공학과의 경우, 수능(일반학생전형)에서는 다음과 같은 점수를 반영하게 됩니다:
+- **국어 (100점)**: 표준점수
+- **수학 (100점)**: 표준점수
+- **영어 (80점)**: 등급에 따른 점수
+- **과학 (100점)**: 표준점수
+따라서, 정시 성적 4.25를 직접 사용하여 일반학생전형으로 지원하는 것은 불가능합니다. 대신 수능 점수와 학생부 교과 성적이 함께 반영되는 수능(일반학생전형)을 통해 지원해야 합니다.
+**추천 사항:**
+1. **수능 준비**: 현재의 정시 성적 4.25를 기반으로 수능 준비를 철저히 하세요.
+2. **교과 성적 확인**: 고등학교에서 이수한 교과 성적이 좋은 점수인지 확인하고, 필요하다면 보강을 해보세요.
+3. **모집요강 확인**: 동의대학교 입학 홈페이지에서 최신 모집요강을 확인하여 정확한 정보를 얻으세요.
+이렇게 준비하시면 수능(일반학생전형)으로 화학환경공학과에 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2의 성적이 높은 점수라는 점과 합격 여부가 여러 요소에 따라 결정된다는 점을 언급하고 있습니다. 그러나 원문에서 제공된 구체적인 평균 성적과 기준에 대한 정보는 포함되어 있지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 평가 요소와 일치하지만, 원문에서 제시된 평균 성적에 대한 구체적인 수치가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 주요 평가 요소를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.2의 성적에 대한 평가와 관련된 정보를 제공하지만, 원문에서 제시된 구체적인 수치와 기준에 대한 정보가 부족하여 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 원문에서 제공된 구체적인 수치와 기준이 누락되어 있어 의미적으로 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있지만, 일부 문장에서 더 명확한 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6531939240227146</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2의 등급은 상당히 높은 점수입니다. 그러나 합격 여부는 여러 요소에 따라 결정되므로 단순한 등급만으로 판단하기 어렵습니다.
+영화학과의 경우, 정시전형에서 주요 평가 요인은 다음과 같습니다:
+1. **국어 + 수학 + 탐구(2개) 표준 변환 점수**: 이 부분이 합격 기준을 크게 좌우합니다.
+2. **영어 등급**: 영화학과는 일반적으로 영어 실력도 중요하게 평가하므로, 좋은 영어 성적은 유리할 수 있습니다.
+3. **면접 성적**: 면접에서는 창의성, 표현력, 학업계획 등을 평가받습니다.
+현재 4.2의 등급을 가지고 있다면, 국어와 수학, 탐구 과목 중에서 좋은 점수를 받았을 가능성이 높습니다. 그러나 영화학과는 창의성과 표현력도 중요하게 평가하므로, 면접 성적이 좋지 않다면 합격 가능성은 낮아질 수 있습니다.
+추천 사항:
+1. **면접 준비**: 면접에서는 창의적인 생각을 잘 표현하고, 자신의 학업계획과 영화에 대한 열정을 잘 전달할 수 있도록 준비하세요.
+2. **영어 실력 강화**: 영어 등급이 높다면 이 부분에서도 유리한 위치를 차지할 수 있습니다.
+최종적으로는 합격 여부는 입학사정관의 판단과 모집단위별 기준에 따라 결정되므로, 최선을 다해 준비하시고 결과를 기다려보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡할 수 있습니다. 그러나 전반적으로 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6293187868618353</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+면접절차 / ①대기실 입실 ⇨ ②신분 확인 ⇨ ③고사장 앞 이동 ⇨ ④고사장 입실 ⇨ ⑤지원동기 및 학업계획 발표 ⇨ ⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ ⑦기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧퇴실
+面试流程如下：
+1. 在等待室入内
+2. → ②身份确认
+3. → ③前往考场前移动
+4. → ④进入考场
+5. → ⑤讲述支持动机及学业计划
+6. → ⑥学业能力、专业匹配相关共同问题发表及质询应答
+7. → ⑦其他质询应答（提交文件的真实性等）
+8. → ⑧退场</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
